--- a/games_collections/playstation/SQL Output/Dates and Finances/Combined Years/finances_and_dates_2009_to_2024.xlsx
+++ b/games_collections/playstation/SQL Output/Dates and Finances/Combined Years/finances_and_dates_2009_to_2024.xlsx
@@ -21,7 +21,7 @@
     <sheet state="visible" name="2009" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024'!$A$1:$F$10</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024'!$A$1:$F$14</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'2023'!$A$1:$F$81</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'2022'!$A$1:$F$101</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'2021'!$A$1:$F$155</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="947">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Goat Simulator 3</t>
+  </si>
+  <si>
+    <t>EA Sports FC 24</t>
+  </si>
+  <si>
+    <t>The Survivalists: Deluxe Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Skul: The Hero Slayer</t>
   </si>
   <si>
     <t>Axiom Verge 2</t>
@@ -3317,7 +3329,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F10" si="1">D2-E2</f>
+        <f t="shared" ref="F2:F14" si="1">D2-E2</f>
         <v>24.99</v>
       </c>
     </row>
@@ -3489,52 +3501,144 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>938.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45377.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>79.99</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15.99</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
     <row r="12">
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:F12" si="2">SUM(D2:D10)</f>
-        <v>434.91</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="A12" s="3">
+        <v>939.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45382.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>26.48</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>940.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45385.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>39.99</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>941.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45385.0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.99</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:F17" si="2">SUM(D2:D14)</f>
+        <v>598.36</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>100.2</v>
-      </c>
-      <c r="F12" s="7">
+        <v>116.19</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>334.71</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" ref="G12:G13" si="3">D12-E12</f>
-        <v>334.71</v>
-      </c>
-      <c r="H12" s="9">
+        <v>482.17</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" ref="G17:G18" si="3">D17-E17</f>
+        <v>482.17</v>
+      </c>
+      <c r="H17" s="9">
         <f>COUNTA(B2:B10)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="7">
-        <f>D12/H12</f>
-        <v>48.32333333</v>
-      </c>
-      <c r="E13" s="7">
-        <f>E12/H12</f>
-        <v>11.13333333</v>
-      </c>
-      <c r="F13" s="7">
-        <f>F12/H12</f>
-        <v>37.19</v>
-      </c>
-      <c r="G13" s="8">
+    <row r="18">
+      <c r="D18" s="7">
+        <f>D17/H17</f>
+        <v>66.48444444</v>
+      </c>
+      <c r="E18" s="7">
+        <f>E17/H17</f>
+        <v>12.91</v>
+      </c>
+      <c r="F18" s="7">
+        <f>F17/H17</f>
+        <v>53.57444444</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="3"/>
-        <v>37.19</v>
-      </c>
-      <c r="H13" s="9">
-        <f>H12/H12</f>
+        <v>53.57444444</v>
+      </c>
+      <c r="H18" s="9">
+        <f>H17/H17</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$10"/>
+  <autoFilter ref="$A$1:$F$14"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3585,7 +3689,7 @@
         <v>185.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C2" s="4">
         <v>42011.0</v>
@@ -3605,7 +3709,7 @@
         <v>210.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C3" s="4">
         <v>42021.0</v>
@@ -3625,7 +3729,7 @@
         <v>211.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C4" s="4">
         <v>42021.0</v>
@@ -3645,7 +3749,7 @@
         <v>240.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C5" s="4">
         <v>42036.0</v>
@@ -3665,7 +3769,7 @@
         <v>243.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C6" s="4">
         <v>42045.0</v>
@@ -3685,7 +3789,7 @@
         <v>619.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C7" s="4">
         <v>42095.0</v>
@@ -3705,7 +3809,7 @@
         <v>514.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C8" s="4">
         <v>42123.0</v>
@@ -3725,7 +3829,7 @@
         <v>146.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C9" s="4">
         <v>42160.0</v>
@@ -3745,7 +3849,7 @@
         <v>238.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C10" s="4">
         <v>42187.0</v>
@@ -3765,7 +3869,7 @@
         <v>239.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C11" s="4">
         <v>42187.0</v>
@@ -3785,7 +3889,7 @@
         <v>248.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C12" s="4">
         <v>42187.0</v>
@@ -3805,7 +3909,7 @@
         <v>249.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C13" s="4">
         <v>42187.0</v>
@@ -3825,7 +3929,7 @@
         <v>260.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C14" s="4">
         <v>42187.0</v>
@@ -3845,7 +3949,7 @@
         <v>268.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C15" s="4">
         <v>42187.0</v>
@@ -3865,7 +3969,7 @@
         <v>266.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C16" s="4">
         <v>42201.0</v>
@@ -3885,7 +3989,7 @@
         <v>263.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C17" s="4">
         <v>42218.0</v>
@@ -3905,7 +4009,7 @@
         <v>250.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C18" s="4">
         <v>42218.0</v>
@@ -3925,7 +4029,7 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C19" s="4">
         <v>42218.0</v>
@@ -3945,7 +4049,7 @@
         <v>233.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C20" s="4">
         <v>42224.0</v>
@@ -3965,7 +4069,7 @@
         <v>434.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C21" s="4">
         <v>42234.0</v>
@@ -3985,7 +4089,7 @@
         <v>246.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C22" s="4">
         <v>42236.0</v>
@@ -4005,7 +4109,7 @@
         <v>85.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C23" s="4">
         <v>42236.0</v>
@@ -4025,7 +4129,7 @@
         <v>87.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C24" s="4">
         <v>42236.0</v>
@@ -4045,7 +4149,7 @@
         <v>88.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C25" s="4">
         <v>42236.0</v>
@@ -4065,7 +4169,7 @@
         <v>89.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C26" s="4">
         <v>42236.0</v>
@@ -4085,7 +4189,7 @@
         <v>90.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C27" s="4">
         <v>42236.0</v>
@@ -4105,7 +4209,7 @@
         <v>264.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C28" s="4">
         <v>42246.0</v>
@@ -4125,7 +4229,7 @@
         <v>513.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C29" s="4">
         <v>42253.0</v>
@@ -4145,7 +4249,7 @@
         <v>548.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C30" s="4">
         <v>42253.0</v>
@@ -4165,7 +4269,7 @@
         <v>709.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C31" s="4">
         <v>42257.0</v>
@@ -4185,7 +4289,7 @@
         <v>158.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C32" s="4">
         <v>42259.0</v>
@@ -4205,7 +4309,7 @@
         <v>159.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C33" s="4">
         <v>42259.0</v>
@@ -4225,7 +4329,7 @@
         <v>92.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C34" s="4">
         <v>42279.0</v>
@@ -4245,7 +4349,7 @@
         <v>93.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C35" s="4">
         <v>42279.0</v>
@@ -4265,7 +4369,7 @@
         <v>21.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C36" s="4">
         <v>42279.0</v>
@@ -4285,7 +4389,7 @@
         <v>22.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C37" s="4">
         <v>42279.0</v>
@@ -4305,7 +4409,7 @@
         <v>23.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C38" s="4">
         <v>42279.0</v>
@@ -4325,7 +4429,7 @@
         <v>27.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C39" s="4">
         <v>42279.0</v>
@@ -4345,7 +4449,7 @@
         <v>318.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C40" s="4">
         <v>42279.0</v>
@@ -4365,7 +4469,7 @@
         <v>192.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C41" s="4">
         <v>42299.0</v>
@@ -4385,7 +4489,7 @@
         <v>76.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C42" s="4">
         <v>42321.0</v>
@@ -4405,7 +4509,7 @@
         <v>247.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C43" s="4">
         <v>42326.0</v>
@@ -4425,7 +4529,7 @@
         <v>688.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C44" s="4">
         <v>42326.0</v>
@@ -4445,7 +4549,7 @@
         <v>626.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C45" s="4">
         <v>42330.0</v>
@@ -4465,7 +4569,7 @@
         <v>252.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C46" s="4">
         <v>42336.0</v>
@@ -4485,7 +4589,7 @@
         <v>671.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C47" s="4">
         <v>42343.0</v>
@@ -4505,7 +4609,7 @@
         <v>647.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C48" s="4">
         <v>42363.0</v>
@@ -4525,7 +4629,7 @@
         <v>616.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C49" s="4">
         <v>42363.0</v>
@@ -4545,7 +4649,7 @@
         <v>373.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C50" s="4">
         <v>42363.0</v>
@@ -4565,7 +4669,7 @@
         <v>262.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C51" s="4">
         <v>42363.0</v>
@@ -4677,7 +4781,7 @@
         <v>44.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C2" s="4">
         <v>41684.0</v>
@@ -4697,7 +4801,7 @@
         <v>45.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C3" s="4">
         <v>41684.0</v>
@@ -4717,7 +4821,7 @@
         <v>46.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C4" s="4">
         <v>41684.0</v>
@@ -4737,7 +4841,7 @@
         <v>209.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C5" s="4">
         <v>41693.0</v>
@@ -4757,7 +4861,7 @@
         <v>230.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C6" s="4">
         <v>41694.0</v>
@@ -4777,7 +4881,7 @@
         <v>37.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C7" s="4">
         <v>41763.0</v>
@@ -4797,7 +4901,7 @@
         <v>38.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C8" s="4">
         <v>41763.0</v>
@@ -4817,7 +4921,7 @@
         <v>242.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C9" s="4">
         <v>41791.0</v>
@@ -4837,7 +4941,7 @@
         <v>182.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C10" s="4">
         <v>41979.0</v>
@@ -4857,7 +4961,7 @@
         <v>183.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C11" s="4">
         <v>41979.0</v>
@@ -4877,7 +4981,7 @@
         <v>184.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C12" s="4">
         <v>41979.0</v>
@@ -4897,7 +5001,7 @@
         <v>99.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C13" s="4">
         <v>41999.0</v>
@@ -4917,7 +5021,7 @@
         <v>141.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C14" s="4">
         <v>41999.0</v>
@@ -5027,7 +5131,7 @@
         <v>172.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C2" s="4">
         <v>41305.0</v>
@@ -5047,7 +5151,7 @@
         <v>140.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C3" s="4">
         <v>41373.0</v>
@@ -5067,7 +5171,7 @@
         <v>143.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C4" s="4">
         <v>41373.0</v>
@@ -5087,7 +5191,7 @@
         <v>123.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C5" s="4">
         <v>41374.0</v>
@@ -5107,7 +5211,7 @@
         <v>164.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C6" s="4">
         <v>41389.0</v>
@@ -5127,7 +5231,7 @@
         <v>166.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C7" s="4">
         <v>41392.0</v>
@@ -5147,7 +5251,7 @@
         <v>127.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C8" s="4">
         <v>41404.0</v>
@@ -5167,7 +5271,7 @@
         <v>131.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C9" s="4">
         <v>41427.0</v>
@@ -5187,7 +5291,7 @@
         <v>235.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C10" s="4">
         <v>41449.0</v>
@@ -5207,7 +5311,7 @@
         <v>152.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C11" s="4">
         <v>41458.0</v>
@@ -5227,7 +5331,7 @@
         <v>174.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C12" s="4">
         <v>41461.0</v>
@@ -5247,7 +5351,7 @@
         <v>175.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C13" s="4">
         <v>41480.0</v>
@@ -5267,7 +5371,7 @@
         <v>213.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C14" s="4">
         <v>41491.0</v>
@@ -5287,7 +5391,7 @@
         <v>171.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C15" s="4">
         <v>41493.0</v>
@@ -5307,7 +5411,7 @@
         <v>155.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C16" s="4">
         <v>41495.0</v>
@@ -5327,7 +5431,7 @@
         <v>29.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C17" s="4">
         <v>41551.0</v>
@@ -5347,7 +5451,7 @@
         <v>208.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C18" s="4">
         <v>41558.0</v>
@@ -5367,7 +5471,7 @@
         <v>148.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C19" s="4">
         <v>41559.0</v>
@@ -5387,7 +5491,7 @@
         <v>35.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C20" s="4">
         <v>41568.0</v>
@@ -5407,7 +5511,7 @@
         <v>58.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C21" s="4">
         <v>41568.0</v>
@@ -5427,7 +5531,7 @@
         <v>18.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C22" s="4">
         <v>41572.0</v>
@@ -5447,7 +5551,7 @@
         <v>68.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C23" s="4">
         <v>41578.0</v>
@@ -5467,7 +5571,7 @@
         <v>70.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C24" s="4">
         <v>41578.0</v>
@@ -5487,7 +5591,7 @@
         <v>71.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C25" s="4">
         <v>41578.0</v>
@@ -5507,7 +5611,7 @@
         <v>228.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C26" s="4">
         <v>41599.0</v>
@@ -5527,7 +5631,7 @@
         <v>221.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C27" s="4">
         <v>41607.0</v>
@@ -5547,7 +5651,7 @@
         <v>153.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C28" s="4">
         <v>41628.0</v>
@@ -5658,7 +5762,7 @@
         <v>173.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C2" s="4">
         <v>40929.0</v>
@@ -5678,7 +5782,7 @@
         <v>104.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C3" s="4">
         <v>40944.0</v>
@@ -5698,7 +5802,7 @@
         <v>443.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C4" s="4">
         <v>41240.0</v>
@@ -5718,7 +5822,7 @@
         <v>444.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C5" s="4">
         <v>41240.0</v>
@@ -5738,7 +5842,7 @@
         <v>445.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C6" s="4">
         <v>41240.0</v>
@@ -5758,7 +5862,7 @@
         <v>51.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C7" s="4">
         <v>41261.0</v>
@@ -5778,7 +5882,7 @@
         <v>30.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C8" s="4">
         <v>41261.0</v>
@@ -5798,7 +5902,7 @@
         <v>50.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C9" s="4">
         <v>41262.0</v>
@@ -5909,7 +6013,7 @@
         <v>7.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C2" s="4">
         <v>40557.0</v>
@@ -5929,7 +6033,7 @@
         <v>8.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C3" s="4">
         <v>40579.0</v>
@@ -5949,7 +6053,7 @@
         <v>9.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C4" s="4">
         <v>40583.0</v>
@@ -5969,7 +6073,7 @@
         <v>10.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C5" s="4">
         <v>40583.0</v>
@@ -5989,7 +6093,7 @@
         <v>34.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C6" s="4">
         <v>40696.0</v>
@@ -6009,7 +6113,7 @@
         <v>52.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C7" s="4">
         <v>40696.0</v>
@@ -6029,7 +6133,7 @@
         <v>139.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C8" s="4">
         <v>40706.0</v>
@@ -6049,7 +6153,7 @@
         <v>206.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C9" s="4">
         <v>40719.0</v>
@@ -6069,7 +6173,7 @@
         <v>129.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C10" s="4">
         <v>40732.0</v>
@@ -6089,7 +6193,7 @@
         <v>28.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C11" s="4">
         <v>40794.0</v>
@@ -6109,7 +6213,7 @@
         <v>111.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C12" s="4">
         <v>40867.0</v>
@@ -6129,7 +6233,7 @@
         <v>170.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C13" s="4">
         <v>40885.0</v>
@@ -6149,7 +6253,7 @@
         <v>151.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C14" s="4">
         <v>40895.0</v>
@@ -6263,7 +6367,7 @@
         <v>180.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C2" s="4">
         <v>40192.0</v>
@@ -6283,7 +6387,7 @@
         <v>165.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C3" s="4">
         <v>40302.0</v>
@@ -6303,7 +6407,7 @@
         <v>162.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C4" s="4">
         <v>40335.0</v>
@@ -6323,7 +6427,7 @@
         <v>188.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C5" s="4">
         <v>40338.0</v>
@@ -6343,7 +6447,7 @@
         <v>200.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C6" s="4">
         <v>40338.0</v>
@@ -6363,7 +6467,7 @@
         <v>225.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C7" s="4">
         <v>40405.0</v>
@@ -6383,7 +6487,7 @@
         <v>223.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C8" s="4">
         <v>40489.0</v>
@@ -6403,7 +6507,7 @@
         <v>224.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C9" s="4">
         <v>40489.0</v>
@@ -6423,7 +6527,7 @@
         <v>135.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C10" s="4">
         <v>40537.0</v>
@@ -6443,7 +6547,7 @@
         <v>6.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C11" s="4">
         <v>40538.0</v>
@@ -6463,7 +6567,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C12" s="4">
         <v>40538.0</v>
@@ -6483,7 +6587,7 @@
         <v>25.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C13" s="4">
         <v>40538.0</v>
@@ -6503,7 +6607,7 @@
         <v>33.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C14" s="4">
         <v>40538.0</v>
@@ -6523,7 +6627,7 @@
         <v>42.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C15" s="4">
         <v>40538.0</v>
@@ -6543,7 +6647,7 @@
         <v>66.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C16" s="4">
         <v>40538.0</v>
@@ -6563,7 +6667,7 @@
         <v>121.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C17" s="4">
         <v>40538.0</v>
@@ -6674,7 +6778,7 @@
         <v>169.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C2" s="4">
         <v>40140.0</v>
@@ -6695,7 +6799,7 @@
         <v>150.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C3" s="4">
         <v>40178.0</v>
@@ -6807,7 +6911,7 @@
         <v>794.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>44929.0</v>
@@ -6827,7 +6931,7 @@
         <v>643.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>44960.0</v>
@@ -6847,7 +6951,7 @@
         <v>916.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>44960.0</v>
@@ -6867,7 +6971,7 @@
         <v>814.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>44964.0</v>
@@ -6887,7 +6991,7 @@
         <v>841.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>44964.0</v>
@@ -6907,7 +7011,7 @@
         <v>527.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <v>44965.0</v>
@@ -6927,7 +7031,7 @@
         <v>374.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>44967.0</v>
@@ -6947,7 +7051,7 @@
         <v>236.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>44971.0</v>
@@ -6967,7 +7071,7 @@
         <v>195.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>44971.0</v>
@@ -6987,7 +7091,7 @@
         <v>848.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
         <v>44983.0</v>
@@ -7007,7 +7111,7 @@
         <v>795.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>44992.0</v>
@@ -7027,7 +7131,7 @@
         <v>327.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <v>44992.0</v>
@@ -7047,7 +7151,7 @@
         <v>497.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>44992.0</v>
@@ -7067,7 +7171,7 @@
         <v>581.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>45014.0</v>
@@ -7087,7 +7191,7 @@
         <v>878.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4">
         <v>45014.0</v>
@@ -7107,7 +7211,7 @@
         <v>863.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>45020.0</v>
@@ -7127,7 +7231,7 @@
         <v>905.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>45020.0</v>
@@ -7147,7 +7251,7 @@
         <v>229.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>45036.0</v>
@@ -7167,7 +7271,7 @@
         <v>276.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <v>45048.0</v>
@@ -7187,7 +7291,7 @@
         <v>354.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4">
         <v>45048.0</v>
@@ -7207,7 +7311,7 @@
         <v>365.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4">
         <v>45048.0</v>
@@ -7227,7 +7331,7 @@
         <v>411.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>45048.0</v>
@@ -7247,7 +7351,7 @@
         <v>739.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <v>45048.0</v>
@@ -7267,7 +7371,7 @@
         <v>837.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4">
         <v>45048.0</v>
@@ -7287,7 +7391,7 @@
         <v>920.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4">
         <v>45050.0</v>
@@ -7307,7 +7411,7 @@
         <v>867.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4">
         <v>45058.0</v>
@@ -7327,7 +7431,7 @@
         <v>670.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4">
         <v>45058.0</v>
@@ -7347,7 +7451,7 @@
         <v>696.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4">
         <v>45058.0</v>
@@ -7367,7 +7471,7 @@
         <v>697.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4">
         <v>45058.0</v>
@@ -7387,7 +7491,7 @@
         <v>698.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4">
         <v>45058.0</v>
@@ -7407,7 +7511,7 @@
         <v>699.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4">
         <v>45058.0</v>
@@ -7427,7 +7531,7 @@
         <v>307.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4">
         <v>45070.0</v>
@@ -7447,7 +7551,7 @@
         <v>828.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4">
         <v>45070.0</v>
@@ -7467,7 +7571,7 @@
         <v>906.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4">
         <v>45080.0</v>
@@ -7487,7 +7591,7 @@
         <v>919.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4">
         <v>45083.0</v>
@@ -7507,7 +7611,7 @@
         <v>866.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4">
         <v>45083.0</v>
@@ -7527,7 +7631,7 @@
         <v>849.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4">
         <v>45083.0</v>
@@ -7547,7 +7651,7 @@
         <v>819.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4">
         <v>45111.0</v>
@@ -7567,7 +7671,7 @@
         <v>801.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4">
         <v>45111.0</v>
@@ -7587,7 +7691,7 @@
         <v>787.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4">
         <v>45111.0</v>
@@ -7607,7 +7711,7 @@
         <v>812.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C42" s="4">
         <v>45140.0</v>
@@ -7627,7 +7731,7 @@
         <v>922.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4">
         <v>45143.0</v>
@@ -7647,7 +7751,7 @@
         <v>893.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" s="4">
         <v>45174.0</v>
@@ -7667,7 +7771,7 @@
         <v>403.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4">
         <v>45174.0</v>
@@ -7687,7 +7791,7 @@
         <v>719.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C46" s="4">
         <v>45176.0</v>
@@ -7707,7 +7811,7 @@
         <v>660.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4">
         <v>45176.0</v>
@@ -7727,7 +7831,7 @@
         <v>630.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C48" s="4">
         <v>45176.0</v>
@@ -7747,7 +7851,7 @@
         <v>501.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4">
         <v>45176.0</v>
@@ -7767,7 +7871,7 @@
         <v>572.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4">
         <v>45176.0</v>
@@ -7787,7 +7891,7 @@
         <v>818.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4">
         <v>45176.0</v>
@@ -7807,7 +7911,7 @@
         <v>865.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4">
         <v>45176.0</v>
@@ -7827,7 +7931,7 @@
         <v>856.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4">
         <v>45176.0</v>
@@ -7847,7 +7951,7 @@
         <v>838.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4">
         <v>45177.0</v>
@@ -7867,7 +7971,7 @@
         <v>442.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4">
         <v>45177.0</v>
@@ -7887,7 +7991,7 @@
         <v>509.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4">
         <v>45177.0</v>
@@ -7907,7 +8011,7 @@
         <v>539.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4">
         <v>45177.0</v>
@@ -7927,7 +8031,7 @@
         <v>412.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4">
         <v>45177.0</v>
@@ -7947,7 +8051,7 @@
         <v>925.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4">
         <v>45177.0</v>
@@ -7967,7 +8071,7 @@
         <v>871.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4">
         <v>45181.0</v>
@@ -7987,7 +8091,7 @@
         <v>508.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4">
         <v>45182.0</v>
@@ -8007,7 +8111,7 @@
         <v>884.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62" s="4">
         <v>45195.0</v>
@@ -8027,7 +8131,7 @@
         <v>825.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="4">
         <v>45202.0</v>
@@ -8047,7 +8151,7 @@
         <v>926.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="4">
         <v>45202.0</v>
@@ -8067,7 +8171,7 @@
         <v>908.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="4">
         <v>45202.0</v>
@@ -8087,7 +8191,7 @@
         <v>786.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4">
         <v>45214.0</v>
@@ -8107,7 +8211,7 @@
         <v>862.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="4">
         <v>45219.0</v>
@@ -8127,7 +8231,7 @@
         <v>551.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="4">
         <v>45224.0</v>
@@ -8147,7 +8251,7 @@
         <v>788.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C69" s="4">
         <v>45237.0</v>
@@ -8167,7 +8271,7 @@
         <v>806.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" s="4">
         <v>45256.0</v>
@@ -8187,7 +8291,7 @@
         <v>807.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4">
         <v>45256.0</v>
@@ -8207,7 +8311,7 @@
         <v>428.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C72" s="4">
         <v>45256.0</v>
@@ -8227,7 +8331,7 @@
         <v>429.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C73" s="4">
         <v>45256.0</v>
@@ -8247,7 +8351,7 @@
         <v>430.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C74" s="4">
         <v>45256.0</v>
@@ -8267,7 +8371,7 @@
         <v>312.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C75" s="4">
         <v>45256.0</v>
@@ -8287,7 +8391,7 @@
         <v>346.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C76" s="4">
         <v>45256.0</v>
@@ -8307,7 +8411,7 @@
         <v>858.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4">
         <v>45262.0</v>
@@ -8327,7 +8431,7 @@
         <v>890.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4">
         <v>45265.0</v>
@@ -8347,7 +8451,7 @@
         <v>880.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C79" s="4">
         <v>45265.0</v>
@@ -8367,7 +8471,7 @@
         <v>854.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C80" s="4">
         <v>45265.0</v>
@@ -8387,7 +8491,7 @@
         <v>857.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C81" s="4">
         <v>45285.0</v>
@@ -8498,7 +8602,7 @@
         <v>529.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4">
         <v>44565.0</v>
@@ -8518,7 +8622,7 @@
         <v>813.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4">
         <v>44565.0</v>
@@ -8538,7 +8642,7 @@
         <v>816.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4">
         <v>44565.0</v>
@@ -8558,7 +8662,7 @@
         <v>605.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4">
         <v>44567.0</v>
@@ -8578,7 +8682,7 @@
         <v>847.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4">
         <v>44567.0</v>
@@ -8598,7 +8702,7 @@
         <v>831.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4">
         <v>44574.0</v>
@@ -8618,7 +8722,7 @@
         <v>458.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4">
         <v>44581.0</v>
@@ -8638,7 +8742,7 @@
         <v>459.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C9" s="4">
         <v>44581.0</v>
@@ -8658,7 +8762,7 @@
         <v>314.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4">
         <v>44590.0</v>
@@ -8678,7 +8782,7 @@
         <v>912.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4">
         <v>44590.0</v>
@@ -8698,7 +8802,7 @@
         <v>877.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4">
         <v>44593.0</v>
@@ -8718,7 +8822,7 @@
         <v>657.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4">
         <v>44593.0</v>
@@ -8738,7 +8842,7 @@
         <v>674.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4">
         <v>44593.0</v>
@@ -8758,7 +8862,7 @@
         <v>824.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4">
         <v>44594.0</v>
@@ -8778,7 +8882,7 @@
         <v>900.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4">
         <v>44594.0</v>
@@ -8798,7 +8902,7 @@
         <v>811.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4">
         <v>44607.0</v>
@@ -8818,7 +8922,7 @@
         <v>537.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4">
         <v>44609.0</v>
@@ -8838,7 +8942,7 @@
         <v>282.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4">
         <v>44621.0</v>
@@ -8858,7 +8962,7 @@
         <v>833.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4">
         <v>44621.0</v>
@@ -8878,7 +8982,7 @@
         <v>620.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4">
         <v>44621.0</v>
@@ -8898,7 +9002,7 @@
         <v>790.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4">
         <v>44623.0</v>
@@ -8918,7 +9022,7 @@
         <v>353.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4">
         <v>44623.0</v>
@@ -8938,7 +9042,7 @@
         <v>451.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4">
         <v>44623.0</v>
@@ -8958,7 +9062,7 @@
         <v>453.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C25" s="4">
         <v>44623.0</v>
@@ -8978,7 +9082,7 @@
         <v>465.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4">
         <v>44640.0</v>
@@ -8998,7 +9102,7 @@
         <v>466.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C27" s="4">
         <v>44640.0</v>
@@ -9018,7 +9122,7 @@
         <v>510.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C28" s="4">
         <v>44640.0</v>
@@ -9038,7 +9142,7 @@
         <v>437.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4">
         <v>44640.0</v>
@@ -9058,7 +9162,7 @@
         <v>394.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4">
         <v>44640.0</v>
@@ -9078,7 +9182,7 @@
         <v>633.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4">
         <v>44640.0</v>
@@ -9098,7 +9202,7 @@
         <v>836.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4">
         <v>44640.0</v>
@@ -9118,7 +9222,7 @@
         <v>797.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4">
         <v>44640.0</v>
@@ -9138,7 +9242,7 @@
         <v>798.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4">
         <v>44640.0</v>
@@ -9158,7 +9262,7 @@
         <v>586.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4">
         <v>44656.0</v>
@@ -9178,7 +9282,7 @@
         <v>803.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4">
         <v>44666.0</v>
@@ -9198,7 +9302,7 @@
         <v>783.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4">
         <v>44678.0</v>
@@ -9218,7 +9322,7 @@
         <v>450.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4">
         <v>44678.0</v>
@@ -9238,7 +9342,7 @@
         <v>335.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4">
         <v>44684.0</v>
@@ -9258,7 +9362,7 @@
         <v>663.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4">
         <v>44684.0</v>
@@ -9278,7 +9382,7 @@
         <v>827.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4">
         <v>44684.0</v>
@@ -9298,7 +9402,7 @@
         <v>834.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4">
         <v>44708.0</v>
@@ -9318,7 +9422,7 @@
         <v>507.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4">
         <v>44708.0</v>
@@ -9338,7 +9442,7 @@
         <v>676.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4">
         <v>44708.0</v>
@@ -9358,7 +9462,7 @@
         <v>759.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4">
         <v>44708.0</v>
@@ -9378,7 +9482,7 @@
         <v>762.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4">
         <v>44708.0</v>
@@ -9398,7 +9502,7 @@
         <v>395.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4">
         <v>44708.0</v>
@@ -9418,7 +9522,7 @@
         <v>400.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4">
         <v>44708.0</v>
@@ -9438,7 +9542,7 @@
         <v>367.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C49" s="4">
         <v>44708.0</v>
@@ -9458,7 +9562,7 @@
         <v>368.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4">
         <v>44708.0</v>
@@ -9478,7 +9582,7 @@
         <v>369.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4">
         <v>44708.0</v>
@@ -9498,7 +9602,7 @@
         <v>380.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4">
         <v>44708.0</v>
@@ -9518,7 +9622,7 @@
         <v>302.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4">
         <v>44708.0</v>
@@ -9538,7 +9642,7 @@
         <v>589.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C54" s="4">
         <v>44708.0</v>
@@ -9558,7 +9662,7 @@
         <v>538.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4">
         <v>44708.0</v>
@@ -9578,7 +9682,7 @@
         <v>544.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4">
         <v>44708.0</v>
@@ -9598,7 +9702,7 @@
         <v>889.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4">
         <v>44708.0</v>
@@ -9618,7 +9722,7 @@
         <v>868.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4">
         <v>44720.0</v>
@@ -9638,7 +9742,7 @@
         <v>802.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4">
         <v>44720.0</v>
@@ -9658,7 +9762,7 @@
         <v>804.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4">
         <v>44745.0</v>
@@ -9678,7 +9782,7 @@
         <v>829.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4">
         <v>44776.0</v>
@@ -9698,7 +9802,7 @@
         <v>476.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C62" s="4">
         <v>44776.0</v>
@@ -9718,7 +9822,7 @@
         <v>914.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C63" s="4">
         <v>44776.0</v>
@@ -9738,7 +9842,7 @@
         <v>805.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4">
         <v>44796.0</v>
@@ -9758,7 +9862,7 @@
         <v>815.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4">
         <v>44811.0</v>
@@ -9778,7 +9882,7 @@
         <v>505.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4">
         <v>44811.0</v>
@@ -9798,7 +9902,7 @@
         <v>414.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4">
         <v>44811.0</v>
@@ -9818,7 +9922,7 @@
         <v>917.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4">
         <v>44811.0</v>
@@ -9838,7 +9942,7 @@
         <v>796.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4">
         <v>44813.0</v>
@@ -9858,7 +9962,7 @@
         <v>897.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4">
         <v>44817.0</v>
@@ -9878,7 +9982,7 @@
         <v>882.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C71" s="4">
         <v>44831.0</v>
@@ -9898,7 +10002,7 @@
         <v>883.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4">
         <v>44831.0</v>
@@ -9918,7 +10022,7 @@
         <v>885.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4">
         <v>44831.0</v>
@@ -9938,7 +10042,7 @@
         <v>196.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C74" s="4">
         <v>44832.0</v>
@@ -9958,7 +10062,7 @@
         <v>576.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4">
         <v>44836.0</v>
@@ -9978,7 +10082,7 @@
         <v>577.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4">
         <v>44836.0</v>
@@ -9998,7 +10102,7 @@
         <v>441.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C77" s="4">
         <v>44839.0</v>
@@ -10018,7 +10122,7 @@
         <v>843.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4">
         <v>44839.0</v>
@@ -10038,7 +10142,7 @@
         <v>910.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4">
         <v>44854.0</v>
@@ -10058,7 +10162,7 @@
         <v>894.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4">
         <v>44864.0</v>
@@ -10078,7 +10182,7 @@
         <v>810.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C81" s="4">
         <v>44864.0</v>
@@ -10098,7 +10202,7 @@
         <v>839.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C82" s="4">
         <v>44867.0</v>
@@ -10118,7 +10222,7 @@
         <v>869.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C83" s="4">
         <v>44867.0</v>
@@ -10138,7 +10242,7 @@
         <v>875.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4">
         <v>44869.0</v>
@@ -10158,7 +10262,7 @@
         <v>891.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4">
         <v>44883.0</v>
@@ -10178,7 +10282,7 @@
         <v>852.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C86" s="4">
         <v>44883.0</v>
@@ -10198,7 +10302,7 @@
         <v>861.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C87" s="4">
         <v>44883.0</v>
@@ -10218,7 +10322,7 @@
         <v>887.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4">
         <v>44883.0</v>
@@ -10238,7 +10342,7 @@
         <v>817.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C89" s="4">
         <v>44883.0</v>
@@ -10258,7 +10362,7 @@
         <v>901.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C90" s="4">
         <v>44889.0</v>
@@ -10278,7 +10382,7 @@
         <v>915.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C91" s="4">
         <v>44909.0</v>
@@ -10298,7 +10402,7 @@
         <v>823.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C92" s="4">
         <v>44914.0</v>
@@ -10318,7 +10422,7 @@
         <v>789.0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C93" s="4">
         <v>44914.0</v>
@@ -10338,7 +10442,7 @@
         <v>272.0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4">
         <v>44915.0</v>
@@ -10358,7 +10462,7 @@
         <v>583.0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C95" s="4">
         <v>44915.0</v>
@@ -10378,7 +10482,7 @@
         <v>879.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C96" s="4">
         <v>44921.0</v>
@@ -10398,7 +10502,7 @@
         <v>822.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C97" s="4">
         <v>44922.0</v>
@@ -10418,7 +10522,7 @@
         <v>842.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C98" s="4">
         <v>44923.0</v>
@@ -10438,7 +10542,7 @@
         <v>519.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C99" s="4">
         <v>44923.0</v>
@@ -10458,7 +10562,7 @@
         <v>413.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C100" s="4">
         <v>44923.0</v>
@@ -10478,7 +10582,7 @@
         <v>873.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C101" s="4">
         <v>44923.0</v>
@@ -10589,7 +10693,7 @@
         <v>462.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" s="4">
         <v>44203.0</v>
@@ -10609,7 +10713,7 @@
         <v>635.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4">
         <v>44203.0</v>
@@ -10629,7 +10733,7 @@
         <v>785.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4">
         <v>44213.0</v>
@@ -10649,7 +10753,7 @@
         <v>106.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4">
         <v>44237.0</v>
@@ -10669,7 +10773,7 @@
         <v>112.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4">
         <v>44237.0</v>
@@ -10689,7 +10793,7 @@
         <v>98.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4">
         <v>44237.0</v>
@@ -10709,7 +10813,7 @@
         <v>190.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4">
         <v>44237.0</v>
@@ -10729,7 +10833,7 @@
         <v>191.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C9" s="4">
         <v>44237.0</v>
@@ -10749,7 +10853,7 @@
         <v>220.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4">
         <v>44237.0</v>
@@ -10769,7 +10873,7 @@
         <v>226.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C11" s="4">
         <v>44237.0</v>
@@ -10789,7 +10893,7 @@
         <v>227.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4">
         <v>44237.0</v>
@@ -10809,7 +10913,7 @@
         <v>740.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" s="4">
         <v>44252.0</v>
@@ -10829,7 +10933,7 @@
         <v>105.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C14" s="4">
         <v>44285.0</v>
@@ -10849,7 +10953,7 @@
         <v>160.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C15" s="4">
         <v>44285.0</v>
@@ -10869,7 +10973,7 @@
         <v>199.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4">
         <v>44285.0</v>
@@ -10889,7 +10993,7 @@
         <v>204.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C17" s="4">
         <v>44285.0</v>
@@ -10909,7 +11013,7 @@
         <v>101.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C18" s="4">
         <v>44285.0</v>
@@ -10929,7 +11033,7 @@
         <v>177.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C19" s="4">
         <v>44285.0</v>
@@ -10949,7 +11053,7 @@
         <v>178.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C20" s="4">
         <v>44285.0</v>
@@ -10969,7 +11073,7 @@
         <v>179.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C21" s="4">
         <v>44285.0</v>
@@ -10989,7 +11093,7 @@
         <v>147.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C22" s="4">
         <v>44292.0</v>
@@ -11009,7 +11113,7 @@
         <v>115.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C23" s="4">
         <v>44292.0</v>
@@ -11029,7 +11133,7 @@
         <v>125.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4">
         <v>44292.0</v>
@@ -11049,7 +11153,7 @@
         <v>130.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C25" s="4">
         <v>44292.0</v>
@@ -11069,7 +11173,7 @@
         <v>161.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C26" s="4">
         <v>44292.0</v>
@@ -11089,7 +11193,7 @@
         <v>872.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C27" s="4">
         <v>44292.0</v>
@@ -11109,7 +11213,7 @@
         <v>207.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C28" s="4">
         <v>44299.0</v>
@@ -11129,7 +11233,7 @@
         <v>216.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C29" s="4">
         <v>44299.0</v>
@@ -11149,7 +11253,7 @@
         <v>132.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C30" s="4">
         <v>44299.0</v>
@@ -11169,7 +11273,7 @@
         <v>14.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C31" s="4">
         <v>44300.0</v>
@@ -11189,7 +11293,7 @@
         <v>15.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C32" s="4">
         <v>44300.0</v>
@@ -11209,7 +11313,7 @@
         <v>47.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C33" s="4">
         <v>44300.0</v>
@@ -11229,7 +11333,7 @@
         <v>48.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C34" s="4">
         <v>44300.0</v>
@@ -11249,7 +11353,7 @@
         <v>67.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C35" s="4">
         <v>44300.0</v>
@@ -11269,7 +11373,7 @@
         <v>69.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C36" s="4">
         <v>44300.0</v>
@@ -11289,7 +11393,7 @@
         <v>311.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C37" s="4">
         <v>44314.0</v>
@@ -11309,7 +11413,7 @@
         <v>792.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C38" s="4">
         <v>44332.0</v>
@@ -11329,7 +11433,7 @@
         <v>902.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C39" s="4">
         <v>44334.0</v>
@@ -11349,7 +11453,7 @@
         <v>826.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C40" s="4">
         <v>44334.0</v>
@@ -11369,7 +11473,7 @@
         <v>832.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C41" s="4">
         <v>44334.0</v>
@@ -11389,7 +11493,7 @@
         <v>345.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C42" s="4">
         <v>44334.0</v>
@@ -11409,7 +11513,7 @@
         <v>358.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C43" s="4">
         <v>44334.0</v>
@@ -11429,7 +11533,7 @@
         <v>393.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C44" s="4">
         <v>44334.0</v>
@@ -11449,7 +11553,7 @@
         <v>410.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C45" s="4">
         <v>44334.0</v>
@@ -11469,7 +11573,7 @@
         <v>500.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C46" s="4">
         <v>44334.0</v>
@@ -11489,7 +11593,7 @@
         <v>502.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C47" s="4">
         <v>44334.0</v>
@@ -11509,7 +11613,7 @@
         <v>295.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C48" s="4">
         <v>44334.0</v>
@@ -11529,7 +11633,7 @@
         <v>918.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C49" s="4">
         <v>44334.0</v>
@@ -11549,7 +11653,7 @@
         <v>923.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C50" s="4">
         <v>44334.0</v>
@@ -11569,7 +11673,7 @@
         <v>928.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C51" s="4">
         <v>44334.0</v>
@@ -11589,7 +11693,7 @@
         <v>927.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C52" s="4">
         <v>44335.0</v>
@@ -11609,7 +11713,7 @@
         <v>921.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C53" s="4">
         <v>44335.0</v>
@@ -11629,7 +11733,7 @@
         <v>520.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C54" s="4">
         <v>44335.0</v>
@@ -11649,7 +11753,7 @@
         <v>904.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C55" s="4">
         <v>44335.0</v>
@@ -11669,7 +11773,7 @@
         <v>874.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C56" s="4">
         <v>44335.0</v>
@@ -11689,7 +11793,7 @@
         <v>888.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C57" s="4">
         <v>44335.0</v>
@@ -11709,7 +11813,7 @@
         <v>607.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C58" s="4">
         <v>44335.0</v>
@@ -11729,7 +11833,7 @@
         <v>800.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C59" s="4">
         <v>44343.0</v>
@@ -11749,7 +11853,7 @@
         <v>899.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C60" s="4">
         <v>44343.0</v>
@@ -11769,7 +11873,7 @@
         <v>859.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C61" s="4">
         <v>44343.0</v>
@@ -11789,7 +11893,7 @@
         <v>870.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C62" s="4">
         <v>44349.0</v>
@@ -11809,7 +11913,7 @@
         <v>911.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C63" s="4">
         <v>44349.0</v>
@@ -11829,7 +11933,7 @@
         <v>924.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C64" s="4">
         <v>44349.0</v>
@@ -11849,7 +11953,7 @@
         <v>896.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C65" s="4">
         <v>44351.0</v>
@@ -11869,7 +11973,7 @@
         <v>876.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C66" s="4">
         <v>44351.0</v>
@@ -11889,7 +11993,7 @@
         <v>860.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C67" s="4">
         <v>44351.0</v>
@@ -11909,7 +12013,7 @@
         <v>845.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C68" s="4">
         <v>44351.0</v>
@@ -11929,7 +12033,7 @@
         <v>846.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C69" s="4">
         <v>44351.0</v>
@@ -11949,7 +12053,7 @@
         <v>808.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C70" s="4">
         <v>44351.0</v>
@@ -11969,7 +12073,7 @@
         <v>820.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C71" s="4">
         <v>44351.0</v>
@@ -11989,7 +12093,7 @@
         <v>855.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C72" s="4">
         <v>44356.0</v>
@@ -12009,7 +12113,7 @@
         <v>611.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C73" s="4">
         <v>44377.0</v>
@@ -12029,7 +12133,7 @@
         <v>690.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C74" s="4">
         <v>44378.0</v>
@@ -12049,7 +12153,7 @@
         <v>703.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C75" s="4">
         <v>44383.0</v>
@@ -12069,7 +12173,7 @@
         <v>784.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C76" s="4">
         <v>44383.0</v>
@@ -12089,7 +12193,7 @@
         <v>844.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C77" s="4">
         <v>44383.0</v>
@@ -12109,7 +12213,7 @@
         <v>892.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C78" s="4">
         <v>44383.0</v>
@@ -12129,7 +12233,7 @@
         <v>609.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C79" s="4">
         <v>44384.0</v>
@@ -12149,7 +12253,7 @@
         <v>639.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C80" s="4">
         <v>44389.0</v>
@@ -12169,7 +12273,7 @@
         <v>895.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C81" s="4">
         <v>44398.0</v>
@@ -12189,7 +12293,7 @@
         <v>898.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C82" s="4">
         <v>44398.0</v>
@@ -12209,7 +12313,7 @@
         <v>913.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C83" s="4">
         <v>44398.0</v>
@@ -12229,7 +12333,7 @@
         <v>566.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C84" s="4">
         <v>44398.0</v>
@@ -12249,7 +12353,7 @@
         <v>909.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C85" s="4">
         <v>44398.0</v>
@@ -12269,7 +12373,7 @@
         <v>864.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C86" s="4">
         <v>44405.0</v>
@@ -12289,7 +12393,7 @@
         <v>625.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C87" s="4">
         <v>44411.0</v>
@@ -12309,7 +12413,7 @@
         <v>299.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C88" s="4">
         <v>44412.0</v>
@@ -12329,7 +12433,7 @@
         <v>234.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C89" s="4">
         <v>44422.0</v>
@@ -12349,7 +12453,7 @@
         <v>212.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C90" s="4">
         <v>44422.0</v>
@@ -12369,7 +12473,7 @@
         <v>215.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C91" s="4">
         <v>44422.0</v>
@@ -12389,7 +12493,7 @@
         <v>205.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C92" s="4">
         <v>44422.0</v>
@@ -12409,7 +12513,7 @@
         <v>163.0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C93" s="4">
         <v>44422.0</v>
@@ -12429,7 +12533,7 @@
         <v>197.0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C94" s="4">
         <v>44422.0</v>
@@ -12449,7 +12553,7 @@
         <v>138.0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C95" s="4">
         <v>44422.0</v>
@@ -12469,7 +12573,7 @@
         <v>156.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C96" s="4">
         <v>44422.0</v>
@@ -12489,7 +12593,7 @@
         <v>157.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C97" s="4">
         <v>44422.0</v>
@@ -12509,7 +12613,7 @@
         <v>102.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C98" s="4">
         <v>44422.0</v>
@@ -12529,7 +12633,7 @@
         <v>181.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C99" s="4">
         <v>44422.0</v>
@@ -12549,7 +12653,7 @@
         <v>379.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C100" s="4">
         <v>44426.0</v>
@@ -12569,7 +12673,7 @@
         <v>347.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C101" s="4">
         <v>44431.0</v>
@@ -12589,7 +12693,7 @@
         <v>338.0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C102" s="4">
         <v>44431.0</v>
@@ -12609,7 +12713,7 @@
         <v>578.0</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C103" s="4">
         <v>44431.0</v>
@@ -12629,7 +12733,7 @@
         <v>596.0</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C104" s="4">
         <v>44431.0</v>
@@ -12649,7 +12753,7 @@
         <v>534.0</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C105" s="4">
         <v>44431.0</v>
@@ -12669,7 +12773,7 @@
         <v>297.0</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C106" s="4">
         <v>44431.0</v>
@@ -12689,7 +12793,7 @@
         <v>495.0</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C107" s="4">
         <v>44431.0</v>
@@ -12709,7 +12813,7 @@
         <v>677.0</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C108" s="4">
         <v>44431.0</v>
@@ -12729,7 +12833,7 @@
         <v>694.0</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C109" s="4">
         <v>44431.0</v>
@@ -12749,7 +12853,7 @@
         <v>654.0</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C110" s="4">
         <v>44431.0</v>
@@ -12769,7 +12873,7 @@
         <v>614.0</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C111" s="4">
         <v>44431.0</v>
@@ -12789,7 +12893,7 @@
         <v>275.0</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C112" s="4">
         <v>44432.0</v>
@@ -12809,7 +12913,7 @@
         <v>710.0</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C113" s="4">
         <v>44433.0</v>
@@ -12829,7 +12933,7 @@
         <v>669.0</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C114" s="4">
         <v>44446.0</v>
@@ -12849,7 +12953,7 @@
         <v>821.0</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C115" s="4">
         <v>44446.0</v>
@@ -12869,7 +12973,7 @@
         <v>733.0</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C116" s="4">
         <v>44446.0</v>
@@ -12889,7 +12993,7 @@
         <v>907.0</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C117" s="4">
         <v>44455.0</v>
@@ -12909,7 +13013,7 @@
         <v>425.0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C118" s="4">
         <v>44461.0</v>
@@ -12929,7 +13033,7 @@
         <v>793.0</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C119" s="4">
         <v>44467.0</v>
@@ -12949,7 +13053,7 @@
         <v>903.0</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C120" s="4">
         <v>44469.0</v>
@@ -12969,7 +13073,7 @@
         <v>559.0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C121" s="4">
         <v>44469.0</v>
@@ -12989,7 +13093,7 @@
         <v>530.0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C122" s="4">
         <v>44474.0</v>
@@ -13009,7 +13113,7 @@
         <v>475.0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C123" s="4">
         <v>44474.0</v>
@@ -13029,7 +13133,7 @@
         <v>469.0</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C124" s="4">
         <v>44474.0</v>
@@ -13049,7 +13153,7 @@
         <v>470.0</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C125" s="4">
         <v>44474.0</v>
@@ -13069,7 +13173,7 @@
         <v>471.0</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C126" s="4">
         <v>44474.0</v>
@@ -13089,7 +13193,7 @@
         <v>840.0</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C127" s="4">
         <v>44474.0</v>
@@ -13109,7 +13213,7 @@
         <v>472.0</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C128" s="4">
         <v>44482.0</v>
@@ -13129,7 +13233,7 @@
         <v>473.0</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C129" s="4">
         <v>44482.0</v>
@@ -13149,7 +13253,7 @@
         <v>474.0</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C130" s="4">
         <v>44482.0</v>
@@ -13169,7 +13273,7 @@
         <v>560.0</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C131" s="4">
         <v>44489.0</v>
@@ -13189,7 +13293,7 @@
         <v>886.0</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C132" s="4">
         <v>44489.0</v>
@@ -13209,7 +13313,7 @@
         <v>853.0</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C133" s="4">
         <v>44502.0</v>
@@ -13229,7 +13333,7 @@
         <v>830.0</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C134" s="4">
         <v>44502.0</v>
@@ -13249,7 +13353,7 @@
         <v>779.0</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C135" s="4">
         <v>44502.0</v>
@@ -13269,7 +13373,7 @@
         <v>771.0</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C136" s="4">
         <v>44502.0</v>
@@ -13289,7 +13393,7 @@
         <v>745.0</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C137" s="4">
         <v>44502.0</v>
@@ -13309,7 +13413,7 @@
         <v>457.0</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C138" s="4">
         <v>44502.0</v>
@@ -13329,7 +13433,7 @@
         <v>555.0</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C139" s="4">
         <v>44510.0</v>
@@ -13349,7 +13453,7 @@
         <v>557.0</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C140" s="4">
         <v>44510.0</v>
@@ -13369,7 +13473,7 @@
         <v>714.0</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C141" s="4">
         <v>44516.0</v>
@@ -13389,7 +13493,7 @@
         <v>775.0</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C142" s="4">
         <v>44517.0</v>
@@ -13409,7 +13513,7 @@
         <v>791.0</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C143" s="4">
         <v>44521.0</v>
@@ -13429,7 +13533,7 @@
         <v>541.0</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C144" s="4">
         <v>44521.0</v>
@@ -13449,7 +13553,7 @@
         <v>487.0</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C145" s="4">
         <v>44521.0</v>
@@ -13469,7 +13573,7 @@
         <v>464.0</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C146" s="4">
         <v>44539.0</v>
@@ -13489,7 +13593,7 @@
         <v>503.0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C147" s="4">
         <v>44539.0</v>
@@ -13509,7 +13613,7 @@
         <v>316.0</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C148" s="4">
         <v>44539.0</v>
@@ -13529,7 +13633,7 @@
         <v>684.0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C149" s="4">
         <v>44539.0</v>
@@ -13549,7 +13653,7 @@
         <v>835.0</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C150" s="4">
         <v>44539.0</v>
@@ -13569,7 +13673,7 @@
         <v>850.0</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C151" s="4">
         <v>44555.0</v>
@@ -13589,7 +13693,7 @@
         <v>851.0</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C152" s="4">
         <v>44555.0</v>
@@ -13609,7 +13713,7 @@
         <v>881.0</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C153" s="4">
         <v>44555.0</v>
@@ -13629,7 +13733,7 @@
         <v>769.0</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C154" s="4">
         <v>44555.0</v>
@@ -13649,7 +13753,7 @@
         <v>743.0</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C155" s="4">
         <v>44555.0</v>
@@ -13760,7 +13864,7 @@
         <v>366.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C2" s="4">
         <v>43856.0</v>
@@ -13780,7 +13884,7 @@
         <v>296.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C3" s="4">
         <v>43867.0</v>
@@ -13800,7 +13904,7 @@
         <v>692.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C4" s="4">
         <v>43867.0</v>
@@ -13820,7 +13924,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C5" s="4">
         <v>43882.0</v>
@@ -13840,7 +13944,7 @@
         <v>617.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C6" s="4">
         <v>43894.0</v>
@@ -13860,7 +13964,7 @@
         <v>329.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C7" s="4">
         <v>43903.0</v>
@@ -13880,7 +13984,7 @@
         <v>287.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C8" s="4">
         <v>43903.0</v>
@@ -13900,7 +14004,7 @@
         <v>713.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C9" s="4">
         <v>43903.0</v>
@@ -13920,7 +14024,7 @@
         <v>350.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4">
         <v>43907.0</v>
@@ -13940,7 +14044,7 @@
         <v>372.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C11" s="4">
         <v>43907.0</v>
@@ -13960,7 +14064,7 @@
         <v>662.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C12" s="4">
         <v>43912.0</v>
@@ -13980,7 +14084,7 @@
         <v>328.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C13" s="4">
         <v>43912.0</v>
@@ -14000,7 +14104,7 @@
         <v>579.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C14" s="4">
         <v>43912.0</v>
@@ -14020,7 +14124,7 @@
         <v>732.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C15" s="4">
         <v>43912.0</v>
@@ -14040,7 +14144,7 @@
         <v>711.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C16" s="4">
         <v>43912.0</v>
@@ -14060,7 +14164,7 @@
         <v>777.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C17" s="4">
         <v>43912.0</v>
@@ -14080,7 +14184,7 @@
         <v>391.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C18" s="4">
         <v>43922.0</v>
@@ -14100,7 +14204,7 @@
         <v>415.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C19" s="4">
         <v>43922.0</v>
@@ -14120,7 +14224,7 @@
         <v>292.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C20" s="4">
         <v>43922.0</v>
@@ -14140,7 +14244,7 @@
         <v>293.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C21" s="4">
         <v>43922.0</v>
@@ -14160,7 +14264,7 @@
         <v>294.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C22" s="4">
         <v>43922.0</v>
@@ -14180,7 +14284,7 @@
         <v>401.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C23" s="4">
         <v>43937.0</v>
@@ -14200,7 +14304,7 @@
         <v>482.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C24" s="4">
         <v>43937.0</v>
@@ -14220,7 +14324,7 @@
         <v>399.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C25" s="4">
         <v>43942.0</v>
@@ -14240,7 +14344,7 @@
         <v>606.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C26" s="4">
         <v>43964.0</v>
@@ -14260,7 +14364,7 @@
         <v>533.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C27" s="4">
         <v>43964.0</v>
@@ -14280,7 +14384,7 @@
         <v>638.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C28" s="4">
         <v>43964.0</v>
@@ -14300,7 +14404,7 @@
         <v>706.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C29" s="4">
         <v>43992.0</v>
@@ -14320,7 +14424,7 @@
         <v>672.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C30" s="4">
         <v>44006.0</v>
@@ -14340,7 +14444,7 @@
         <v>704.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C31" s="4">
         <v>44063.0</v>
@@ -14360,7 +14464,7 @@
         <v>326.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C32" s="4">
         <v>44067.0</v>
@@ -14380,7 +14484,7 @@
         <v>356.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C33" s="4">
         <v>44071.0</v>
@@ -14400,7 +14504,7 @@
         <v>521.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C34" s="4">
         <v>44071.0</v>
@@ -14420,7 +14524,7 @@
         <v>599.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C35" s="4">
         <v>44071.0</v>
@@ -14440,7 +14544,7 @@
         <v>753.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C36" s="4">
         <v>44071.0</v>
@@ -14460,7 +14564,7 @@
         <v>642.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C37" s="4">
         <v>44083.0</v>
@@ -14480,7 +14584,7 @@
         <v>574.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C38" s="4">
         <v>44091.0</v>
@@ -14500,7 +14604,7 @@
         <v>575.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C39" s="4">
         <v>44091.0</v>
@@ -14520,7 +14624,7 @@
         <v>176.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C40" s="4">
         <v>44091.0</v>
@@ -14540,7 +14644,7 @@
         <v>186.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C41" s="4">
         <v>44091.0</v>
@@ -14560,7 +14664,7 @@
         <v>187.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C42" s="4">
         <v>44091.0</v>
@@ -14580,7 +14684,7 @@
         <v>193.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C43" s="4">
         <v>44091.0</v>
@@ -14600,7 +14704,7 @@
         <v>194.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C44" s="4">
         <v>44091.0</v>
@@ -14620,7 +14724,7 @@
         <v>217.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C45" s="4">
         <v>44091.0</v>
@@ -14640,7 +14744,7 @@
         <v>218.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C46" s="4">
         <v>44091.0</v>
@@ -14660,7 +14764,7 @@
         <v>100.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C47" s="4">
         <v>44091.0</v>
@@ -14680,7 +14784,7 @@
         <v>103.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C48" s="4">
         <v>44091.0</v>
@@ -14700,7 +14804,7 @@
         <v>110.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C49" s="4">
         <v>44091.0</v>
@@ -14720,7 +14824,7 @@
         <v>113.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C50" s="4">
         <v>44091.0</v>
@@ -14740,7 +14844,7 @@
         <v>114.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C51" s="4">
         <v>44091.0</v>
@@ -14760,7 +14864,7 @@
         <v>116.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C52" s="4">
         <v>44091.0</v>
@@ -14780,7 +14884,7 @@
         <v>117.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C53" s="4">
         <v>44091.0</v>
@@ -14800,7 +14904,7 @@
         <v>120.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C54" s="4">
         <v>44091.0</v>
@@ -14820,7 +14924,7 @@
         <v>122.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C55" s="4">
         <v>44091.0</v>
@@ -14840,7 +14944,7 @@
         <v>124.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C56" s="4">
         <v>44091.0</v>
@@ -14860,7 +14964,7 @@
         <v>126.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C57" s="4">
         <v>44091.0</v>
@@ -14880,7 +14984,7 @@
         <v>136.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C58" s="4">
         <v>44091.0</v>
@@ -14900,7 +15004,7 @@
         <v>144.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C59" s="4">
         <v>44091.0</v>
@@ -14920,7 +15024,7 @@
         <v>145.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C60" s="4">
         <v>44091.0</v>
@@ -14940,7 +15044,7 @@
         <v>749.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C61" s="4">
         <v>44091.0</v>
@@ -14960,7 +15064,7 @@
         <v>809.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C62" s="4">
         <v>44105.0</v>
@@ -14980,7 +15084,7 @@
         <v>440.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C63" s="4">
         <v>44105.0</v>
@@ -15000,7 +15104,7 @@
         <v>423.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C64" s="4">
         <v>44115.0</v>
@@ -15020,7 +15124,7 @@
         <v>168.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C65" s="4">
         <v>44115.0</v>
@@ -15040,7 +15144,7 @@
         <v>137.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C66" s="4">
         <v>44115.0</v>
@@ -15060,7 +15164,7 @@
         <v>128.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C67" s="4">
         <v>44115.0</v>
@@ -15080,7 +15184,7 @@
         <v>118.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C68" s="4">
         <v>44115.0</v>
@@ -15100,7 +15204,7 @@
         <v>119.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C69" s="4">
         <v>44115.0</v>
@@ -15120,7 +15224,7 @@
         <v>107.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C70" s="4">
         <v>44115.0</v>
@@ -15140,7 +15244,7 @@
         <v>108.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C71" s="4">
         <v>44115.0</v>
@@ -15160,7 +15264,7 @@
         <v>109.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C72" s="4">
         <v>44115.0</v>
@@ -15180,7 +15284,7 @@
         <v>219.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C73" s="4">
         <v>44115.0</v>
@@ -15200,7 +15304,7 @@
         <v>222.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C74" s="4">
         <v>44115.0</v>
@@ -15220,7 +15324,7 @@
         <v>231.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C75" s="4">
         <v>44115.0</v>
@@ -15240,7 +15344,7 @@
         <v>232.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C76" s="4">
         <v>44115.0</v>
@@ -15260,7 +15364,7 @@
         <v>198.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C77" s="4">
         <v>44115.0</v>
@@ -15280,7 +15384,7 @@
         <v>214.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C78" s="4">
         <v>44115.0</v>
@@ -15300,7 +15404,7 @@
         <v>427.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C79" s="4">
         <v>44138.0</v>
@@ -15320,7 +15424,7 @@
         <v>588.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C80" s="4">
         <v>44139.0</v>
@@ -15340,7 +15444,7 @@
         <v>278.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C81" s="4">
         <v>44139.0</v>
@@ -15360,7 +15464,7 @@
         <v>406.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C82" s="4">
         <v>44157.0</v>
@@ -15380,7 +15484,7 @@
         <v>481.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C83" s="4">
         <v>44176.0</v>
@@ -15400,7 +15504,7 @@
         <v>284.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C84" s="4">
         <v>44180.0</v>
@@ -15420,7 +15524,7 @@
         <v>494.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C85" s="4">
         <v>44190.0</v>
@@ -15440,7 +15544,7 @@
         <v>595.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C86" s="4">
         <v>44190.0</v>
@@ -15460,7 +15564,7 @@
         <v>631.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C87" s="4">
         <v>44190.0</v>
@@ -15571,7 +15675,7 @@
         <v>729.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C2" s="4">
         <v>43466.0</v>
@@ -15591,7 +15695,7 @@
         <v>731.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C3" s="4">
         <v>43466.0</v>
@@ -15611,7 +15715,7 @@
         <v>737.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C4" s="4">
         <v>43466.0</v>
@@ -15631,7 +15735,7 @@
         <v>750.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C5" s="4">
         <v>43466.0</v>
@@ -15651,7 +15755,7 @@
         <v>758.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C6" s="4">
         <v>43466.0</v>
@@ -15671,7 +15775,7 @@
         <v>776.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C7" s="4">
         <v>43466.0</v>
@@ -15691,7 +15795,7 @@
         <v>781.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C8" s="4">
         <v>43466.0</v>
@@ -15711,7 +15815,7 @@
         <v>782.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C9" s="4">
         <v>43466.0</v>
@@ -15731,7 +15835,7 @@
         <v>778.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C10" s="4">
         <v>43468.0</v>
@@ -15751,7 +15855,7 @@
         <v>760.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C11" s="4">
         <v>43468.0</v>
@@ -15771,7 +15875,7 @@
         <v>763.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C12" s="4">
         <v>43468.0</v>
@@ -15791,7 +15895,7 @@
         <v>764.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C13" s="4">
         <v>43468.0</v>
@@ -15811,7 +15915,7 @@
         <v>751.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C14" s="4">
         <v>43468.0</v>
@@ -15831,7 +15935,7 @@
         <v>746.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C15" s="4">
         <v>43468.0</v>
@@ -15851,7 +15955,7 @@
         <v>738.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C16" s="4">
         <v>43468.0</v>
@@ -15871,7 +15975,7 @@
         <v>741.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C17" s="4">
         <v>43468.0</v>
@@ -15891,7 +15995,7 @@
         <v>742.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C18" s="4">
         <v>43468.0</v>
@@ -15911,7 +16015,7 @@
         <v>720.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C19" s="4">
         <v>43468.0</v>
@@ -15931,7 +16035,7 @@
         <v>725.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C20" s="4">
         <v>43468.0</v>
@@ -15951,7 +16055,7 @@
         <v>761.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C21" s="4">
         <v>43469.0</v>
@@ -15971,7 +16075,7 @@
         <v>770.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C22" s="4">
         <v>43469.0</v>
@@ -15991,7 +16095,7 @@
         <v>755.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C23" s="4">
         <v>43472.0</v>
@@ -16011,7 +16115,7 @@
         <v>765.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C24" s="4">
         <v>43472.0</v>
@@ -16031,7 +16135,7 @@
         <v>766.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C25" s="4">
         <v>43472.0</v>
@@ -16051,7 +16155,7 @@
         <v>716.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C26" s="4">
         <v>43472.0</v>
@@ -16071,7 +16175,7 @@
         <v>724.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C27" s="4">
         <v>43472.0</v>
@@ -16091,7 +16195,7 @@
         <v>730.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C28" s="4">
         <v>43472.0</v>
@@ -16111,7 +16215,7 @@
         <v>722.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C29" s="4">
         <v>43472.0</v>
@@ -16131,7 +16235,7 @@
         <v>712.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C30" s="4">
         <v>43472.0</v>
@@ -16151,7 +16255,7 @@
         <v>734.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C31" s="4">
         <v>43475.0</v>
@@ -16171,7 +16275,7 @@
         <v>717.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C32" s="4">
         <v>43475.0</v>
@@ -16191,7 +16295,7 @@
         <v>721.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C33" s="4">
         <v>43475.0</v>
@@ -16211,7 +16315,7 @@
         <v>726.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C34" s="4">
         <v>43475.0</v>
@@ -16231,7 +16335,7 @@
         <v>727.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C35" s="4">
         <v>43475.0</v>
@@ -16251,7 +16355,7 @@
         <v>767.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C36" s="4">
         <v>43475.0</v>
@@ -16271,7 +16375,7 @@
         <v>744.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C37" s="4">
         <v>43475.0</v>
@@ -16291,7 +16395,7 @@
         <v>772.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C38" s="4">
         <v>43475.0</v>
@@ -16311,7 +16415,7 @@
         <v>757.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C39" s="4">
         <v>43475.0</v>
@@ -16331,7 +16435,7 @@
         <v>715.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C40" s="4">
         <v>43477.0</v>
@@ -16351,7 +16455,7 @@
         <v>707.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C41" s="4">
         <v>43519.0</v>
@@ -16371,7 +16475,7 @@
         <v>573.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C42" s="4">
         <v>43519.0</v>
@@ -16391,7 +16495,7 @@
         <v>289.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C43" s="4">
         <v>43519.0</v>
@@ -16411,7 +16515,7 @@
         <v>336.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C44" s="4">
         <v>43519.0</v>
@@ -16431,7 +16535,7 @@
         <v>337.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C45" s="4">
         <v>43519.0</v>
@@ -16451,7 +16555,7 @@
         <v>382.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C46" s="4">
         <v>43519.0</v>
@@ -16471,7 +16575,7 @@
         <v>383.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C47" s="4">
         <v>43519.0</v>
@@ -16491,7 +16595,7 @@
         <v>384.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C48" s="4">
         <v>43519.0</v>
@@ -16511,7 +16615,7 @@
         <v>461.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C49" s="4">
         <v>43519.0</v>
@@ -16531,7 +16635,7 @@
         <v>659.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C50" s="4">
         <v>43525.0</v>
@@ -16551,7 +16655,7 @@
         <v>756.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C51" s="4">
         <v>43543.0</v>
@@ -16571,7 +16675,7 @@
         <v>723.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C52" s="4">
         <v>43548.0</v>
@@ -16591,7 +16695,7 @@
         <v>386.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C53" s="4">
         <v>43548.0</v>
@@ -16611,7 +16715,7 @@
         <v>308.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C54" s="4">
         <v>43548.0</v>
@@ -16631,7 +16735,7 @@
         <v>305.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C55" s="4">
         <v>43558.0</v>
@@ -16651,7 +16755,7 @@
         <v>728.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C56" s="4">
         <v>43564.0</v>
@@ -16671,7 +16775,7 @@
         <v>768.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C57" s="4">
         <v>43564.0</v>
@@ -16691,7 +16795,7 @@
         <v>313.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C58" s="4">
         <v>43591.0</v>
@@ -16711,7 +16815,7 @@
         <v>780.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C59" s="4">
         <v>43615.0</v>
@@ -16731,7 +16835,7 @@
         <v>304.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C60" s="4">
         <v>43623.0</v>
@@ -16751,7 +16855,7 @@
         <v>433.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C61" s="4">
         <v>43623.0</v>
@@ -16771,7 +16875,7 @@
         <v>774.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C62" s="4">
         <v>43625.0</v>
@@ -16791,7 +16895,7 @@
         <v>343.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C63" s="4">
         <v>43633.0</v>
@@ -16811,7 +16915,7 @@
         <v>333.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C64" s="4">
         <v>43637.0</v>
@@ -16831,7 +16935,7 @@
         <v>556.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C65" s="4">
         <v>43638.0</v>
@@ -16851,7 +16955,7 @@
         <v>558.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C66" s="4">
         <v>43638.0</v>
@@ -16871,7 +16975,7 @@
         <v>587.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C67" s="4">
         <v>43652.0</v>
@@ -16891,7 +16995,7 @@
         <v>661.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C68" s="4">
         <v>43668.0</v>
@@ -16911,7 +17015,7 @@
         <v>381.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C69" s="4">
         <v>43668.0</v>
@@ -16931,7 +17035,7 @@
         <v>693.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C70" s="4">
         <v>43668.0</v>
@@ -16951,7 +17055,7 @@
         <v>492.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C71" s="4">
         <v>43668.0</v>
@@ -16971,7 +17075,7 @@
         <v>493.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C72" s="4">
         <v>43668.0</v>
@@ -16991,7 +17095,7 @@
         <v>359.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C73" s="4">
         <v>43685.0</v>
@@ -17011,7 +17115,7 @@
         <v>360.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C74" s="4">
         <v>43685.0</v>
@@ -17031,7 +17135,7 @@
         <v>361.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C75" s="4">
         <v>43685.0</v>
@@ -17051,7 +17155,7 @@
         <v>324.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C76" s="4">
         <v>43699.0</v>
@@ -17071,7 +17175,7 @@
         <v>752.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C77" s="4">
         <v>43699.0</v>
@@ -17091,7 +17195,7 @@
         <v>319.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C78" s="4">
         <v>43717.0</v>
@@ -17111,7 +17215,7 @@
         <v>736.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C79" s="4">
         <v>43717.0</v>
@@ -17131,7 +17235,7 @@
         <v>799.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C80" s="4">
         <v>43721.0</v>
@@ -17151,7 +17255,7 @@
         <v>317.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C81" s="4">
         <v>43727.0</v>
@@ -17171,7 +17275,7 @@
         <v>280.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C82" s="4">
         <v>43727.0</v>
@@ -17191,7 +17295,7 @@
         <v>552.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C83" s="4">
         <v>43727.0</v>
@@ -17211,7 +17315,7 @@
         <v>553.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C84" s="4">
         <v>43727.0</v>
@@ -17231,7 +17335,7 @@
         <v>554.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C85" s="4">
         <v>43727.0</v>
@@ -17251,7 +17355,7 @@
         <v>550.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C86" s="4">
         <v>43749.0</v>
@@ -17271,7 +17375,7 @@
         <v>261.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C87" s="4">
         <v>43749.0</v>
@@ -17291,7 +17395,7 @@
         <v>618.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C88" s="4">
         <v>43749.0</v>
@@ -17311,7 +17415,7 @@
         <v>342.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C89" s="4">
         <v>43755.0</v>
@@ -17331,7 +17435,7 @@
         <v>489.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C90" s="4">
         <v>43763.0</v>
@@ -17351,7 +17455,7 @@
         <v>454.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C91" s="4">
         <v>43786.0</v>
@@ -17371,7 +17475,7 @@
         <v>455.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C92" s="4">
         <v>43786.0</v>
@@ -17391,7 +17495,7 @@
         <v>456.0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C93" s="4">
         <v>43786.0</v>
@@ -17411,7 +17515,7 @@
         <v>615.0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C94" s="4">
         <v>43804.0</v>
@@ -17431,7 +17535,7 @@
         <v>735.0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C95" s="4">
         <v>43804.0</v>
@@ -17451,7 +17555,7 @@
         <v>773.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C96" s="4">
         <v>43804.0</v>
@@ -17471,7 +17575,7 @@
         <v>747.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C97" s="4">
         <v>43804.0</v>
@@ -17491,7 +17595,7 @@
         <v>748.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C98" s="4">
         <v>43804.0</v>
@@ -17511,7 +17615,7 @@
         <v>687.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C99" s="4">
         <v>43816.0</v>
@@ -17531,7 +17635,7 @@
         <v>708.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C100" s="4">
         <v>43824.0</v>
@@ -17551,7 +17655,7 @@
         <v>650.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C101" s="4">
         <v>43824.0</v>
@@ -17571,7 +17675,7 @@
         <v>580.0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C102" s="4">
         <v>43824.0</v>
@@ -17591,7 +17695,7 @@
         <v>718.0</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C103" s="4">
         <v>43824.0</v>
@@ -17611,7 +17715,7 @@
         <v>303.0</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C104" s="4">
         <v>43824.0</v>
@@ -17631,7 +17735,7 @@
         <v>341.0</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C105" s="4">
         <v>43824.0</v>
@@ -17651,7 +17755,7 @@
         <v>363.0</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C106" s="4">
         <v>43824.0</v>
@@ -17671,7 +17775,7 @@
         <v>371.0</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C107" s="4">
         <v>43824.0</v>
@@ -17790,7 +17894,7 @@
         <v>189.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C2" s="4">
         <v>43115.0</v>
@@ -17810,7 +17914,7 @@
         <v>281.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C3" s="4">
         <v>43115.0</v>
@@ -17830,7 +17934,7 @@
         <v>378.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C4" s="4">
         <v>43124.0</v>
@@ -17850,7 +17954,7 @@
         <v>536.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C5" s="4">
         <v>43155.0</v>
@@ -17870,7 +17974,7 @@
         <v>608.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C6" s="4">
         <v>43249.0</v>
@@ -17890,7 +17994,7 @@
         <v>286.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C7" s="4">
         <v>43268.0</v>
@@ -17910,7 +18014,7 @@
         <v>407.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C8" s="4">
         <v>43275.0</v>
@@ -17930,7 +18034,7 @@
         <v>420.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C9" s="4">
         <v>43275.0</v>
@@ -17950,7 +18054,7 @@
         <v>515.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C10" s="4">
         <v>43275.0</v>
@@ -17970,7 +18074,7 @@
         <v>702.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C11" s="4">
         <v>43275.0</v>
@@ -17990,7 +18094,7 @@
         <v>564.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C12" s="4">
         <v>43275.0</v>
@@ -18010,7 +18114,7 @@
         <v>655.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C13" s="4">
         <v>43275.0</v>
@@ -18030,7 +18134,7 @@
         <v>546.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C14" s="4">
         <v>43295.0</v>
@@ -18050,7 +18154,7 @@
         <v>142.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C15" s="4">
         <v>43295.0</v>
@@ -18070,7 +18174,7 @@
         <v>321.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C16" s="4">
         <v>43335.0</v>
@@ -18090,7 +18194,7 @@
         <v>582.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C17" s="4">
         <v>43341.0</v>
@@ -18110,7 +18214,7 @@
         <v>237.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C18" s="4">
         <v>43345.0</v>
@@ -18130,7 +18234,7 @@
         <v>486.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C19" s="4">
         <v>43350.0</v>
@@ -18150,7 +18254,7 @@
         <v>385.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C20" s="4">
         <v>43372.0</v>
@@ -18170,7 +18274,7 @@
         <v>149.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C21" s="4">
         <v>43373.0</v>
@@ -18190,7 +18294,7 @@
         <v>154.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C22" s="4">
         <v>43373.0</v>
@@ -18210,7 +18314,7 @@
         <v>452.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C23" s="4">
         <v>43373.0</v>
@@ -18230,7 +18334,7 @@
         <v>241.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C24" s="4">
         <v>43373.0</v>
@@ -18250,7 +18354,7 @@
         <v>245.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C25" s="4">
         <v>43373.0</v>
@@ -18270,7 +18374,7 @@
         <v>256.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C26" s="4">
         <v>43373.0</v>
@@ -18290,7 +18394,7 @@
         <v>258.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C27" s="4">
         <v>43373.0</v>
@@ -18310,7 +18414,7 @@
         <v>259.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C28" s="4">
         <v>43373.0</v>
@@ -18330,7 +18434,7 @@
         <v>265.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C29" s="4">
         <v>43373.0</v>
@@ -18350,7 +18454,7 @@
         <v>3.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C30" s="4">
         <v>43373.0</v>
@@ -18370,7 +18474,7 @@
         <v>5.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C31" s="4">
         <v>43373.0</v>
@@ -18390,7 +18494,7 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C32" s="4">
         <v>43373.0</v>
@@ -18410,7 +18514,7 @@
         <v>59.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C33" s="4">
         <v>43373.0</v>
@@ -18430,7 +18534,7 @@
         <v>73.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C34" s="4">
         <v>43373.0</v>
@@ -18450,7 +18554,7 @@
         <v>74.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C35" s="4">
         <v>43373.0</v>
@@ -18470,7 +18574,7 @@
         <v>91.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C36" s="4">
         <v>43373.0</v>
@@ -18490,7 +18594,7 @@
         <v>94.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C37" s="4">
         <v>43373.0</v>
@@ -18510,7 +18614,7 @@
         <v>392.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C38" s="4">
         <v>43377.0</v>
@@ -18530,7 +18634,7 @@
         <v>682.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C39" s="4">
         <v>43377.0</v>
@@ -18550,7 +18654,7 @@
         <v>686.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C40" s="4">
         <v>43377.0</v>
@@ -18570,7 +18674,7 @@
         <v>649.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C41" s="4">
         <v>43377.0</v>
@@ -18590,7 +18694,7 @@
         <v>591.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C42" s="4">
         <v>43392.0</v>
@@ -18610,7 +18714,7 @@
         <v>622.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C43" s="4">
         <v>43410.0</v>
@@ -18630,7 +18734,7 @@
         <v>531.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C44" s="4">
         <v>43414.0</v>
@@ -18650,7 +18754,7 @@
         <v>598.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C45" s="4">
         <v>43417.0</v>
@@ -18670,7 +18774,7 @@
         <v>291.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C46" s="4">
         <v>43421.0</v>
@@ -18690,7 +18794,7 @@
         <v>390.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C47" s="4">
         <v>43430.0</v>
@@ -18710,7 +18814,7 @@
         <v>543.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C48" s="4">
         <v>43433.0</v>
@@ -18730,7 +18834,7 @@
         <v>695.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C49" s="4">
         <v>43463.0</v>
@@ -18750,7 +18854,7 @@
         <v>754.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C50" s="4">
         <v>43463.0</v>
@@ -18860,7 +18964,7 @@
         <v>309.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C2" s="4">
         <v>42750.0</v>
@@ -18880,7 +18984,7 @@
         <v>348.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C3" s="4">
         <v>42750.0</v>
@@ -18900,7 +19004,7 @@
         <v>435.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C4" s="4">
         <v>42750.0</v>
@@ -18920,7 +19024,7 @@
         <v>570.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C5" s="4">
         <v>42750.0</v>
@@ -18940,7 +19044,7 @@
         <v>603.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C6" s="4">
         <v>42750.0</v>
@@ -18960,7 +19064,7 @@
         <v>604.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C7" s="4">
         <v>42754.0</v>
@@ -18980,7 +19084,7 @@
         <v>612.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C8" s="4">
         <v>42754.0</v>
@@ -19000,7 +19104,7 @@
         <v>568.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C9" s="4">
         <v>42754.0</v>
@@ -19020,7 +19124,7 @@
         <v>636.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C10" s="4">
         <v>42754.0</v>
@@ -19040,7 +19144,7 @@
         <v>664.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C11" s="4">
         <v>42754.0</v>
@@ -19060,7 +19164,7 @@
         <v>685.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C12" s="4">
         <v>42754.0</v>
@@ -19080,7 +19184,7 @@
         <v>512.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C13" s="4">
         <v>42754.0</v>
@@ -19100,7 +19204,7 @@
         <v>480.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C14" s="4">
         <v>42754.0</v>
@@ -19120,7 +19224,7 @@
         <v>375.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C15" s="4">
         <v>42754.0</v>
@@ -19140,7 +19244,7 @@
         <v>279.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C16" s="4">
         <v>42754.0</v>
@@ -19160,7 +19264,7 @@
         <v>274.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C17" s="4">
         <v>42766.0</v>
@@ -19180,7 +19284,7 @@
         <v>277.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C18" s="4">
         <v>42766.0</v>
@@ -19200,7 +19304,7 @@
         <v>351.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C19" s="4">
         <v>42766.0</v>
@@ -19220,7 +19324,7 @@
         <v>370.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C20" s="4">
         <v>42766.0</v>
@@ -19240,7 +19344,7 @@
         <v>257.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C21" s="4">
         <v>42766.0</v>
@@ -19260,7 +19364,7 @@
         <v>448.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C22" s="4">
         <v>42766.0</v>
@@ -19280,7 +19384,7 @@
         <v>419.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C23" s="4">
         <v>42778.0</v>
@@ -19300,7 +19404,7 @@
         <v>72.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C24" s="4">
         <v>42778.0</v>
@@ -19320,7 +19424,7 @@
         <v>78.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C25" s="4">
         <v>42784.0</v>
@@ -19340,7 +19444,7 @@
         <v>79.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C26" s="4">
         <v>42784.0</v>
@@ -19360,7 +19464,7 @@
         <v>80.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C27" s="4">
         <v>42784.0</v>
@@ -19380,7 +19484,7 @@
         <v>81.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C28" s="4">
         <v>42784.0</v>
@@ -19400,7 +19504,7 @@
         <v>16.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C29" s="4">
         <v>42784.0</v>
@@ -19420,7 +19524,7 @@
         <v>17.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C30" s="4">
         <v>42784.0</v>
@@ -19440,7 +19544,7 @@
         <v>19.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C31" s="4">
         <v>42784.0</v>
@@ -19460,7 +19564,7 @@
         <v>20.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C32" s="4">
         <v>42784.0</v>
@@ -19480,7 +19584,7 @@
         <v>516.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C33" s="4">
         <v>42791.0</v>
@@ -19500,7 +19604,7 @@
         <v>517.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C34" s="4">
         <v>42791.0</v>
@@ -19520,7 +19624,7 @@
         <v>634.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C35" s="4">
         <v>42791.0</v>
@@ -19540,7 +19644,7 @@
         <v>610.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C36" s="4">
         <v>42791.0</v>
@@ -19560,7 +19664,7 @@
         <v>53.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C37" s="4">
         <v>42806.0</v>
@@ -19580,7 +19684,7 @@
         <v>54.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C38" s="4">
         <v>42806.0</v>
@@ -19600,7 +19704,7 @@
         <v>55.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C39" s="4">
         <v>42806.0</v>
@@ -19620,7 +19724,7 @@
         <v>56.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C40" s="4">
         <v>42806.0</v>
@@ -19640,7 +19744,7 @@
         <v>57.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C41" s="4">
         <v>42806.0</v>
@@ -19660,7 +19764,7 @@
         <v>95.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C42" s="4">
         <v>42806.0</v>
@@ -19680,7 +19784,7 @@
         <v>96.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C43" s="4">
         <v>42806.0</v>
@@ -19700,7 +19804,7 @@
         <v>653.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C44" s="4">
         <v>42810.0</v>
@@ -19720,7 +19824,7 @@
         <v>658.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C45" s="4">
         <v>42811.0</v>
@@ -19740,7 +19844,7 @@
         <v>675.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C46" s="4">
         <v>42811.0</v>
@@ -19760,7 +19864,7 @@
         <v>623.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C47" s="4">
         <v>42811.0</v>
@@ -19780,7 +19884,7 @@
         <v>344.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C48" s="4">
         <v>42811.0</v>
@@ -19800,7 +19904,7 @@
         <v>506.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C49" s="4">
         <v>42811.0</v>
@@ -19820,7 +19924,7 @@
         <v>532.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C50" s="4">
         <v>42811.0</v>
@@ -19840,7 +19944,7 @@
         <v>601.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C51" s="4">
         <v>42811.0</v>
@@ -19860,7 +19964,7 @@
         <v>602.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C52" s="4">
         <v>42811.0</v>
@@ -19880,7 +19984,7 @@
         <v>396.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C53" s="4">
         <v>42811.0</v>
@@ -19900,7 +20004,7 @@
         <v>436.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C54" s="4">
         <v>42811.0</v>
@@ -19920,7 +20024,7 @@
         <v>460.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C55" s="4">
         <v>42811.0</v>
@@ -19940,7 +20044,7 @@
         <v>43.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C56" s="4">
         <v>42812.0</v>
@@ -19960,7 +20064,7 @@
         <v>656.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C57" s="4">
         <v>42828.0</v>
@@ -19980,7 +20084,7 @@
         <v>624.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C58" s="4">
         <v>42832.0</v>
@@ -20000,7 +20104,7 @@
         <v>244.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C59" s="4">
         <v>42832.0</v>
@@ -20020,7 +20124,7 @@
         <v>355.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C60" s="4">
         <v>42832.0</v>
@@ -20040,7 +20144,7 @@
         <v>357.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C61" s="4">
         <v>42832.0</v>
@@ -20060,7 +20164,7 @@
         <v>325.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C62" s="4">
         <v>42832.0</v>
@@ -20080,7 +20184,7 @@
         <v>254.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C63" s="4">
         <v>42832.0</v>
@@ -20100,7 +20204,7 @@
         <v>463.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C64" s="4">
         <v>42832.0</v>
@@ -20120,7 +20224,7 @@
         <v>597.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C65" s="4">
         <v>42832.0</v>
@@ -20140,7 +20244,7 @@
         <v>567.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C66" s="4">
         <v>42832.0</v>
@@ -20160,7 +20264,7 @@
         <v>511.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C67" s="4">
         <v>42832.0</v>
@@ -20180,7 +20284,7 @@
         <v>498.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C68" s="4">
         <v>42832.0</v>
@@ -20200,7 +20304,7 @@
         <v>402.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C69" s="4">
         <v>42834.0</v>
@@ -20220,7 +20324,7 @@
         <v>251.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C70" s="4">
         <v>42840.0</v>
@@ -20240,7 +20344,7 @@
         <v>267.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C71" s="4">
         <v>42840.0</v>
@@ -20260,7 +20364,7 @@
         <v>362.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C72" s="4">
         <v>42844.0</v>
@@ -20280,7 +20384,7 @@
         <v>349.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C73" s="4">
         <v>42859.0</v>
@@ -20300,7 +20404,7 @@
         <v>432.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C74" s="4">
         <v>42859.0</v>
@@ -20320,7 +20424,7 @@
         <v>545.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C75" s="4">
         <v>42859.0</v>
@@ -20340,7 +20444,7 @@
         <v>632.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C76" s="4">
         <v>42859.0</v>
@@ -20360,7 +20464,7 @@
         <v>673.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C77" s="4">
         <v>42859.0</v>
@@ -20380,7 +20484,7 @@
         <v>613.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C78" s="4">
         <v>42875.0</v>
@@ -20400,7 +20504,7 @@
         <v>645.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C79" s="4">
         <v>42875.0</v>
@@ -20420,7 +20524,7 @@
         <v>479.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C80" s="4">
         <v>42875.0</v>
@@ -20440,7 +20544,7 @@
         <v>421.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C81" s="4">
         <v>42875.0</v>
@@ -20460,7 +20564,7 @@
         <v>40.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C82" s="4">
         <v>42875.0</v>
@@ -20480,7 +20584,7 @@
         <v>320.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C83" s="4">
         <v>42875.0</v>
@@ -20500,7 +20604,7 @@
         <v>1.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C84" s="4">
         <v>42877.0</v>
@@ -20520,7 +20624,7 @@
         <v>4.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C85" s="4">
         <v>42877.0</v>
@@ -20540,7 +20644,7 @@
         <v>31.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C86" s="4">
         <v>42877.0</v>
@@ -20560,7 +20664,7 @@
         <v>61.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C87" s="4">
         <v>42877.0</v>
@@ -20580,7 +20684,7 @@
         <v>288.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C88" s="4">
         <v>42887.0</v>
@@ -20600,7 +20704,7 @@
         <v>404.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C89" s="4">
         <v>42887.0</v>
@@ -20620,7 +20724,7 @@
         <v>535.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C90" s="4">
         <v>42887.0</v>
@@ -20640,7 +20744,7 @@
         <v>585.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C91" s="4">
         <v>42887.0</v>
@@ -20660,7 +20764,7 @@
         <v>496.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C92" s="4">
         <v>42908.0</v>
@@ -20680,7 +20784,7 @@
         <v>332.0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C93" s="4">
         <v>42915.0</v>
@@ -20700,7 +20804,7 @@
         <v>629.0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C94" s="4">
         <v>42920.0</v>
@@ -20720,7 +20824,7 @@
         <v>646.0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C95" s="4">
         <v>42925.0</v>
@@ -20740,7 +20844,7 @@
         <v>331.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C96" s="4">
         <v>42925.0</v>
@@ -20760,7 +20864,7 @@
         <v>364.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C97" s="4">
         <v>42925.0</v>
@@ -20780,7 +20884,7 @@
         <v>592.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C98" s="4">
         <v>42925.0</v>
@@ -20800,7 +20904,7 @@
         <v>561.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C99" s="4">
         <v>42925.0</v>
@@ -20820,7 +20924,7 @@
         <v>376.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C100" s="4">
         <v>42925.0</v>
@@ -20840,7 +20944,7 @@
         <v>422.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C101" s="4">
         <v>42925.0</v>
@@ -20860,7 +20964,7 @@
         <v>426.0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C102" s="4">
         <v>42925.0</v>
@@ -20880,7 +20984,7 @@
         <v>397.0</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C103" s="4">
         <v>42925.0</v>
@@ -20900,7 +21004,7 @@
         <v>398.0</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C104" s="4">
         <v>42925.0</v>
@@ -20920,7 +21024,7 @@
         <v>449.0</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C105" s="4">
         <v>42925.0</v>
@@ -20940,7 +21044,7 @@
         <v>524.0</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C106" s="4">
         <v>42927.0</v>
@@ -20960,7 +21064,7 @@
         <v>377.0</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C107" s="4">
         <v>42929.0</v>
@@ -20980,7 +21084,7 @@
         <v>271.0</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C108" s="4">
         <v>42932.0</v>
@@ -21000,7 +21104,7 @@
         <v>298.0</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C109" s="4">
         <v>42939.0</v>
@@ -21020,7 +21124,7 @@
         <v>323.0</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C110" s="4">
         <v>42939.0</v>
@@ -21040,7 +21144,7 @@
         <v>388.0</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C111" s="4">
         <v>42939.0</v>
@@ -21060,7 +21164,7 @@
         <v>542.0</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C112" s="4">
         <v>42939.0</v>
@@ -21080,7 +21184,7 @@
         <v>478.0</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C113" s="4">
         <v>42945.0</v>
@@ -21100,7 +21204,7 @@
         <v>488.0</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C114" s="4">
         <v>42950.0</v>
@@ -21120,7 +21224,7 @@
         <v>483.0</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C115" s="4">
         <v>42950.0</v>
@@ -21140,7 +21244,7 @@
         <v>467.0</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C116" s="4">
         <v>42950.0</v>
@@ -21160,7 +21264,7 @@
         <v>549.0</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C117" s="4">
         <v>42950.0</v>
@@ -21180,7 +21284,7 @@
         <v>565.0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C118" s="4">
         <v>42950.0</v>
@@ -21200,7 +21304,7 @@
         <v>600.0</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C119" s="4">
         <v>42950.0</v>
@@ -21220,7 +21324,7 @@
         <v>310.0</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C120" s="4">
         <v>42950.0</v>
@@ -21240,7 +21344,7 @@
         <v>315.0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C121" s="4">
         <v>42950.0</v>
@@ -21260,7 +21364,7 @@
         <v>273.0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C122" s="4">
         <v>42950.0</v>
@@ -21280,7 +21384,7 @@
         <v>330.0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C123" s="4">
         <v>42950.0</v>
@@ -21300,7 +21404,7 @@
         <v>651.0</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C124" s="4">
         <v>42950.0</v>
@@ -21320,7 +21424,7 @@
         <v>678.0</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C125" s="4">
         <v>42950.0</v>
@@ -21340,7 +21444,7 @@
         <v>679.0</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C126" s="4">
         <v>42950.0</v>
@@ -21360,7 +21464,7 @@
         <v>680.0</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C127" s="4">
         <v>42950.0</v>
@@ -21380,7 +21484,7 @@
         <v>691.0</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C128" s="4">
         <v>42950.0</v>
@@ -21400,7 +21504,7 @@
         <v>705.0</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C129" s="4">
         <v>42950.0</v>
@@ -21420,7 +21524,7 @@
         <v>665.0</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C130" s="4">
         <v>42951.0</v>
@@ -21440,7 +21544,7 @@
         <v>666.0</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C131" s="4">
         <v>42951.0</v>
@@ -21460,7 +21564,7 @@
         <v>667.0</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C132" s="4">
         <v>42951.0</v>
@@ -21480,7 +21584,7 @@
         <v>652.0</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C133" s="4">
         <v>42951.0</v>
@@ -21500,7 +21604,7 @@
         <v>283.0</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C134" s="4">
         <v>42951.0</v>
@@ -21520,7 +21624,7 @@
         <v>584.0</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C135" s="4">
         <v>42951.0</v>
@@ -21540,7 +21644,7 @@
         <v>563.0</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C136" s="4">
         <v>42951.0</v>
@@ -21560,7 +21664,7 @@
         <v>526.0</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C137" s="4">
         <v>42951.0</v>
@@ -21580,7 +21684,7 @@
         <v>504.0</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C138" s="4">
         <v>42951.0</v>
@@ -21600,7 +21704,7 @@
         <v>484.0</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C139" s="4">
         <v>42951.0</v>
@@ -21620,7 +21724,7 @@
         <v>447.0</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C140" s="4">
         <v>42951.0</v>
@@ -21640,7 +21744,7 @@
         <v>405.0</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C141" s="4">
         <v>42951.0</v>
@@ -21660,7 +21764,7 @@
         <v>522.0</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C142" s="4">
         <v>42954.0</v>
@@ -21680,7 +21784,7 @@
         <v>285.0</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C143" s="4">
         <v>42954.0</v>
@@ -21700,7 +21804,7 @@
         <v>621.0</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C144" s="4">
         <v>42954.0</v>
@@ -21720,7 +21824,7 @@
         <v>590.0</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C145" s="4">
         <v>42961.0</v>
@@ -21740,7 +21844,7 @@
         <v>485.0</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C146" s="4">
         <v>42969.0</v>
@@ -21760,7 +21864,7 @@
         <v>300.0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C147" s="4">
         <v>42969.0</v>
@@ -21780,7 +21884,7 @@
         <v>301.0</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C148" s="4">
         <v>42969.0</v>
@@ -21800,7 +21904,7 @@
         <v>306.0</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C149" s="4">
         <v>42969.0</v>
@@ -21820,7 +21924,7 @@
         <v>269.0</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C150" s="4">
         <v>42969.0</v>
@@ -21840,7 +21944,7 @@
         <v>270.0</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C151" s="4">
         <v>42969.0</v>
@@ -21860,7 +21964,7 @@
         <v>668.0</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C152" s="4">
         <v>42969.0</v>
@@ -21880,7 +21984,7 @@
         <v>700.0</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C153" s="4">
         <v>42969.0</v>
@@ -21900,7 +22004,7 @@
         <v>701.0</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C154" s="4">
         <v>42969.0</v>
@@ -21920,7 +22024,7 @@
         <v>389.0</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C155" s="4">
         <v>43007.0</v>
@@ -21940,7 +22044,7 @@
         <v>409.0</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C156" s="4">
         <v>43014.0</v>
@@ -21960,7 +22064,7 @@
         <v>477.0</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C157" s="4">
         <v>43014.0</v>
@@ -21980,7 +22084,7 @@
         <v>75.0</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C158" s="4">
         <v>43014.0</v>
@@ -22000,7 +22104,7 @@
         <v>77.0</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C159" s="4">
         <v>43014.0</v>
@@ -22020,7 +22124,7 @@
         <v>97.0</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C160" s="4">
         <v>43014.0</v>
@@ -22040,7 +22144,7 @@
         <v>133.0</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C161" s="4">
         <v>43014.0</v>
@@ -22060,7 +22164,7 @@
         <v>134.0</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C162" s="4">
         <v>43014.0</v>
@@ -22080,7 +22184,7 @@
         <v>167.0</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C163" s="4">
         <v>43014.0</v>
@@ -22100,7 +22204,7 @@
         <v>86.0</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C164" s="4">
         <v>43014.0</v>
@@ -22120,7 +22224,7 @@
         <v>62.0</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C165" s="4">
         <v>43014.0</v>
@@ -22140,7 +22244,7 @@
         <v>63.0</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C166" s="4">
         <v>43014.0</v>
@@ -22160,7 +22264,7 @@
         <v>64.0</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C167" s="4">
         <v>43014.0</v>
@@ -22180,7 +22284,7 @@
         <v>65.0</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C168" s="4">
         <v>43014.0</v>
@@ -22200,7 +22304,7 @@
         <v>32.0</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C169" s="4">
         <v>43014.0</v>
@@ -22220,7 +22324,7 @@
         <v>36.0</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C170" s="4">
         <v>43014.0</v>
@@ -22240,7 +22344,7 @@
         <v>12.0</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C171" s="4">
         <v>43014.0</v>
@@ -22260,7 +22364,7 @@
         <v>49.0</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C172" s="4">
         <v>43014.0</v>
@@ -22280,7 +22384,7 @@
         <v>255.0</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C173" s="4">
         <v>43014.0</v>
@@ -22300,7 +22404,7 @@
         <v>424.0</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C174" s="4">
         <v>43016.0</v>
@@ -22320,7 +22424,7 @@
         <v>334.0</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C175" s="4">
         <v>43069.0</v>
@@ -22340,7 +22444,7 @@
         <v>637.0</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C176" s="4">
         <v>43073.0</v>
@@ -22360,7 +22464,7 @@
         <v>644.0</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C177" s="4">
         <v>43077.0</v>
@@ -22380,7 +22484,7 @@
         <v>446.0</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C178" s="4">
         <v>43078.0</v>
@@ -22400,7 +22504,7 @@
         <v>352.0</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C179" s="4">
         <v>43079.0</v>
@@ -22420,7 +22524,7 @@
         <v>593.0</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C180" s="4">
         <v>43081.0</v>
@@ -22440,7 +22544,7 @@
         <v>594.0</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C181" s="4">
         <v>43081.0</v>
@@ -22460,7 +22564,7 @@
         <v>528.0</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C182" s="4">
         <v>43091.0</v>
@@ -22480,7 +22584,7 @@
         <v>547.0</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C183" s="4">
         <v>43091.0</v>
@@ -22500,7 +22604,7 @@
         <v>491.0</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C184" s="4">
         <v>43091.0</v>
@@ -22520,7 +22624,7 @@
         <v>681.0</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C185" s="4">
         <v>43091.0</v>
@@ -22540,7 +22644,7 @@
         <v>683.0</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C186" s="4">
         <v>43091.0</v>
@@ -22560,7 +22664,7 @@
         <v>640.0</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C187" s="4">
         <v>43095.0</v>
@@ -22580,7 +22684,7 @@
         <v>518.0</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C188" s="4">
         <v>43100.0</v>
@@ -22691,7 +22795,7 @@
         <v>339.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C2" s="4">
         <v>42619.0</v>
@@ -22711,7 +22815,7 @@
         <v>416.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C3" s="4">
         <v>42619.0</v>
@@ -22731,7 +22835,7 @@
         <v>417.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C4" s="4">
         <v>42619.0</v>
@@ -22751,7 +22855,7 @@
         <v>418.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C5" s="4">
         <v>42619.0</v>
@@ -22771,7 +22875,7 @@
         <v>490.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C6" s="4">
         <v>42619.0</v>
@@ -22791,7 +22895,7 @@
         <v>525.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C7" s="4">
         <v>42619.0</v>
@@ -22811,7 +22915,7 @@
         <v>569.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C8" s="4">
         <v>42619.0</v>
@@ -22831,7 +22935,7 @@
         <v>540.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C9" s="4">
         <v>42623.0</v>
@@ -22851,7 +22955,7 @@
         <v>562.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C10" s="4">
         <v>42623.0</v>
@@ -22871,7 +22975,7 @@
         <v>641.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C11" s="4">
         <v>42624.0</v>
@@ -22891,7 +22995,7 @@
         <v>628.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C12" s="4">
         <v>42635.0</v>
@@ -22911,7 +23015,7 @@
         <v>499.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C13" s="4">
         <v>42635.0</v>
@@ -22931,7 +23035,7 @@
         <v>322.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C14" s="4">
         <v>42635.0</v>
@@ -22951,7 +23055,7 @@
         <v>689.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C15" s="4">
         <v>42648.0</v>
@@ -22971,7 +23075,7 @@
         <v>523.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C16" s="4">
         <v>42650.0</v>
@@ -22991,7 +23095,7 @@
         <v>340.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C17" s="4">
         <v>42650.0</v>
@@ -23011,7 +23115,7 @@
         <v>387.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C18" s="4">
         <v>42650.0</v>
@@ -23031,7 +23135,7 @@
         <v>408.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C19" s="4">
         <v>42650.0</v>
@@ -23051,7 +23155,7 @@
         <v>60.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C20" s="4">
         <v>42653.0</v>
@@ -23071,7 +23175,7 @@
         <v>24.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C21" s="4">
         <v>42655.0</v>
@@ -23091,7 +23195,7 @@
         <v>648.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C22" s="4">
         <v>42664.0</v>
@@ -23111,7 +23215,7 @@
         <v>39.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C23" s="4">
         <v>42665.0</v>
@@ -23131,7 +23235,7 @@
         <v>41.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C24" s="4">
         <v>42665.0</v>
@@ -23151,7 +23255,7 @@
         <v>253.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C25" s="4">
         <v>42665.0</v>
@@ -23171,7 +23275,7 @@
         <v>431.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C26" s="4">
         <v>42666.0</v>
@@ -23191,7 +23295,7 @@
         <v>438.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C27" s="4">
         <v>42700.0</v>
@@ -23211,7 +23315,7 @@
         <v>439.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C28" s="4">
         <v>42700.0</v>
@@ -23231,7 +23335,7 @@
         <v>468.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C29" s="4">
         <v>42700.0</v>
@@ -23251,7 +23355,7 @@
         <v>290.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C30" s="4">
         <v>42700.0</v>
@@ -23271,7 +23375,7 @@
         <v>82.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C31" s="4">
         <v>42700.0</v>
@@ -23291,7 +23395,7 @@
         <v>83.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C32" s="4">
         <v>42700.0</v>
@@ -23311,7 +23415,7 @@
         <v>84.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C33" s="4">
         <v>42700.0</v>
@@ -23331,7 +23435,7 @@
         <v>201.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C34" s="4">
         <v>42700.0</v>
@@ -23351,7 +23455,7 @@
         <v>202.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C35" s="4">
         <v>42700.0</v>
@@ -23371,7 +23475,7 @@
         <v>203.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C36" s="4">
         <v>42700.0</v>
@@ -23391,7 +23495,7 @@
         <v>627.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C37" s="4">
         <v>42710.0</v>
@@ -23411,7 +23515,7 @@
         <v>571.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C38" s="4">
         <v>42724.0</v>
